--- a/static/Models/Classification/Equation/Metals.xlsx
+++ b/static/Models/Classification/Equation/Metals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>1.139625430107117</v>
+        <v>0.123586431145668</v>
       </c>
       <c r="C2">
-        <v>-5.582611560821533</v>
+        <v>-5.299356937408447</v>
       </c>
       <c r="D2">
-        <v>10.38351440429688</v>
+        <v>9.147862434387207</v>
       </c>
       <c r="E2">
-        <v>-12.11879825592041</v>
+        <v>-12.41886043548584</v>
       </c>
       <c r="F2">
-        <v>-2.212951898574829</v>
+        <v>-1.724670767784119</v>
       </c>
       <c r="G2">
-        <v>0.3110653758049011</v>
+        <v>0.4858324229717255</v>
       </c>
       <c r="H2">
-        <v>-0.0664791464805603</v>
+        <v>1.236002087593079</v>
       </c>
       <c r="I2">
-        <v>-0.4359638690948486</v>
+        <v>-0.2023066282272339</v>
       </c>
       <c r="J2">
-        <v>-8.067286491394043</v>
+        <v>-8.700538635253906</v>
       </c>
       <c r="K2">
-        <v>-1.173479199409485</v>
+        <v>-1.275398969650269</v>
       </c>
       <c r="L2">
-        <v>0.4973110258579254</v>
+        <v>1.304824590682983</v>
       </c>
       <c r="M2">
-        <v>1.042698264122009</v>
+        <v>-0.07830421626567841</v>
       </c>
       <c r="N2">
-        <v>0.9849603772163391</v>
+        <v>1.25985312461853</v>
       </c>
       <c r="O2">
-        <v>9.53111743927002</v>
+        <v>8.61848258972168</v>
       </c>
       <c r="P2">
-        <v>-12.86370468139648</v>
+        <v>-12.81945896148682</v>
       </c>
       <c r="Q2">
-        <v>-6.157768726348877</v>
+        <v>-7.149410724639893</v>
       </c>
       <c r="R2">
-        <v>2.657843828201294</v>
+        <v>1.331398487091064</v>
       </c>
       <c r="S2">
-        <v>-3.13688588142395</v>
+        <v>-3.797489643096924</v>
       </c>
       <c r="T2">
-        <v>3.860464334487915</v>
+        <v>3.469022274017334</v>
       </c>
       <c r="U2">
-        <v>6.813145160675049</v>
+        <v>5.686559677124023</v>
       </c>
       <c r="V2">
-        <v>-1.579530358314514</v>
+        <v>-1.73811137676239</v>
       </c>
       <c r="W2">
-        <v>-0.05945752188563347</v>
+        <v>1.11717677116394</v>
       </c>
       <c r="X2">
-        <v>1.264560103416443</v>
+        <v>0.5378842353820801</v>
       </c>
       <c r="Y2">
-        <v>1.100526809692383</v>
+        <v>2.268872022628784</v>
       </c>
       <c r="Z2">
-        <v>-0.6258280277252197</v>
+        <v>-1.665358066558838</v>
       </c>
       <c r="AA2">
-        <v>3.549229383468628</v>
+        <v>3.483197212219238</v>
       </c>
       <c r="AB2">
-        <v>6.043188095092773</v>
+        <v>7.008286952972412</v>
       </c>
       <c r="AC2">
-        <v>6.872838020324707</v>
+        <v>8.25098991394043</v>
       </c>
       <c r="AD2">
-        <v>0.3838249742984772</v>
+        <v>0.7262332439422607</v>
       </c>
       <c r="AE2">
-        <v>4.360814094543457</v>
+        <v>5.158975124359131</v>
       </c>
       <c r="AF2">
-        <v>-0.1780641824007034</v>
+        <v>0.2135887444019318</v>
       </c>
       <c r="AG2">
-        <v>-3.252738475799561</v>
+        <v>-2.059047222137451</v>
       </c>
       <c r="AH2">
-        <v>-18.9180965423584</v>
+        <v>-19.92236518859863</v>
       </c>
       <c r="AI2">
-        <v>-4.797982692718506</v>
+        <v>-5.227277755737305</v>
       </c>
       <c r="AJ2">
-        <v>-0.7510033845901489</v>
+        <v>-1.482787251472473</v>
       </c>
       <c r="AK2">
-        <v>1.801484227180481</v>
+        <v>0.5617220997810364</v>
       </c>
       <c r="AL2">
-        <v>-0.1593853980302811</v>
+        <v>-1.118843078613281</v>
       </c>
       <c r="AM2">
-        <v>-7.186304092407227</v>
+        <v>-7.085144519805908</v>
       </c>
       <c r="AN2">
-        <v>-3.523460626602173</v>
+        <v>-3.044383764266968</v>
       </c>
       <c r="AO2">
-        <v>1.758629679679871</v>
+        <v>2.878153800964355</v>
       </c>
       <c r="AP2">
-        <v>2.248720645904541</v>
+        <v>1.14225172996521</v>
       </c>
       <c r="AQ2">
-        <v>0.2038232535123825</v>
+        <v>-0.6065052151679993</v>
       </c>
       <c r="AR2">
-        <v>-4.987029552459717</v>
+        <v>-5.606415748596191</v>
       </c>
       <c r="AS2">
-        <v>-3.179024219512939</v>
+        <v>-2.919471740722656</v>
       </c>
       <c r="AT2">
-        <v>3.479871273040771</v>
+        <v>3.781540632247925</v>
       </c>
       <c r="AU2">
-        <v>-17.02542877197266</v>
+        <v>-16.05133247375488</v>
       </c>
       <c r="AV2">
-        <v>-3.700500249862671</v>
+        <v>-3.338847160339355</v>
       </c>
       <c r="AW2">
-        <v>-7.341704845428467</v>
+        <v>-6.7182297706604</v>
       </c>
       <c r="AX2">
-        <v>10.36013698577881</v>
+        <v>10.45708847045898</v>
       </c>
       <c r="AY2">
-        <v>0.1274652183055878</v>
+        <v>1.380829334259033</v>
       </c>
       <c r="AZ2">
-        <v>-5.49818229675293</v>
+        <v>-6.537816047668457</v>
       </c>
       <c r="BA2">
-        <v>-10.00367069244385</v>
+        <v>-9.919123649597168</v>
       </c>
       <c r="BB2">
-        <v>-9.34766960144043</v>
+        <v>-8.32244873046875</v>
       </c>
       <c r="BC2">
-        <v>0.6128950715065002</v>
+        <v>1.179880499839783</v>
       </c>
       <c r="BD2">
-        <v>1.275719046592712</v>
+        <v>1.622184157371521</v>
       </c>
       <c r="BE2">
-        <v>-0.9434649348258972</v>
+        <v>-1.719063878059387</v>
       </c>
       <c r="BF2">
-        <v>-2.554540157318115</v>
+        <v>-1.712334990501404</v>
       </c>
       <c r="BG2">
-        <v>0.4056998789310455</v>
+        <v>0.393390953540802</v>
       </c>
       <c r="BH2">
-        <v>0.8504626750946045</v>
+        <v>0.698943555355072</v>
       </c>
       <c r="BI2">
-        <v>1.496916174888611</v>
+        <v>0.9731722474098206</v>
       </c>
       <c r="BJ2">
-        <v>9.244392395019531</v>
+        <v>9.429109573364258</v>
       </c>
       <c r="BK2">
-        <v>-1.218222141265869</v>
+        <v>-1.019664168357849</v>
       </c>
       <c r="BL2">
-        <v>1.44710111618042</v>
+        <v>0.49095818400383</v>
       </c>
       <c r="BM2">
-        <v>-1.252995014190674</v>
+        <v>-2.044924020767212</v>
       </c>
       <c r="BN2">
-        <v>-6.510313987731934</v>
+        <v>-6.299083709716797</v>
       </c>
       <c r="BO2">
-        <v>1.486993670463562</v>
+        <v>2.364872455596924</v>
       </c>
       <c r="BP2">
-        <v>-3.985828876495361</v>
+        <v>-4.736599445343018</v>
       </c>
       <c r="BQ2">
-        <v>-3.172163724899292</v>
+        <v>-3.997335433959961</v>
       </c>
       <c r="BR2">
-        <v>0.01292267441749573</v>
+        <v>0.3124658465385437</v>
       </c>
       <c r="BS2">
-        <v>-1.126866340637207</v>
+        <v>-2.470941781997681</v>
       </c>
       <c r="BT2">
-        <v>-0.2159845381975174</v>
+        <v>-0.3601725697517395</v>
       </c>
       <c r="BU2">
-        <v>-3.165015935897827</v>
+        <v>-2.893530130386353</v>
       </c>
       <c r="BV2">
-        <v>-2.712770462036133</v>
+        <v>-3.069903373718262</v>
       </c>
       <c r="BW2">
-        <v>-1.602362990379333</v>
+        <v>-0.9562851190567017</v>
       </c>
       <c r="BX2">
-        <v>-6.25829553604126</v>
+        <v>-6.534783840179443</v>
       </c>
       <c r="BY2">
-        <v>-2.115294218063354</v>
+        <v>-2.08847713470459</v>
       </c>
       <c r="BZ2">
-        <v>-11.78359031677246</v>
+        <v>-12.28346729278564</v>
       </c>
       <c r="CA2">
-        <v>-1.076775908470154</v>
+        <v>-0.7952125072479248</v>
       </c>
       <c r="CB2">
-        <v>-14.24257564544678</v>
+        <v>-13.35442638397217</v>
       </c>
       <c r="CC2">
-        <v>0.6279992461204529</v>
+        <v>0.7111583948135376</v>
       </c>
       <c r="CD2">
-        <v>0.3000483512878418</v>
+        <v>0.9064946174621582</v>
       </c>
       <c r="CE2">
-        <v>0.1409403532743454</v>
+        <v>0.9109628796577454</v>
       </c>
       <c r="CF2">
-        <v>-2.224939584732056</v>
+        <v>-3.360984563827515</v>
       </c>
       <c r="CG2">
-        <v>-7.209863662719727</v>
+        <v>-6.363978385925293</v>
       </c>
       <c r="CH2">
-        <v>-4.014114856719971</v>
+        <v>-5.192471504211426</v>
       </c>
       <c r="CI2">
-        <v>0.7147707939147949</v>
+        <v>1.384759664535522</v>
       </c>
       <c r="CJ2">
-        <v>0.0327700562775135</v>
+        <v>1.281014204025269</v>
       </c>
       <c r="CK2">
-        <v>0.866014301776886</v>
+        <v>1.723075747489929</v>
       </c>
       <c r="CL2">
-        <v>-1.248073577880859</v>
+        <v>-1.45707106590271</v>
       </c>
       <c r="CM2">
-        <v>8.360366821289062</v>
+        <v>8.164887428283691</v>
       </c>
       <c r="CN2">
-        <v>0.5753242373466492</v>
+        <v>-0.3389106690883636</v>
       </c>
       <c r="CO2">
-        <v>3.201271057128906</v>
+        <v>3.082543134689331</v>
       </c>
       <c r="CP2">
-        <v>3.660196781158447</v>
+        <v>2.964795112609863</v>
       </c>
       <c r="CQ2">
-        <v>-0.8817883133888245</v>
+        <v>0.3946917951107025</v>
       </c>
       <c r="CR2">
-        <v>-0.7695310115814209</v>
+        <v>-1.328786253929138</v>
       </c>
       <c r="CS2">
-        <v>-0.2004606872797012</v>
+        <v>-1.291938900947571</v>
       </c>
       <c r="CT2">
-        <v>1.30216908454895</v>
+        <v>1.548707485198975</v>
       </c>
       <c r="CU2">
-        <v>2.650274515151978</v>
+        <v>1.923355102539062</v>
       </c>
       <c r="CV2">
-        <v>1.603156685829163</v>
+        <v>1.221459031105042</v>
       </c>
       <c r="CW2">
-        <v>16.47220802307129</v>
+        <v>15.17985725402832</v>
       </c>
       <c r="CX2">
-        <v>0.9574477076530457</v>
+        <v>-0.07823179662227631</v>
       </c>
       <c r="CY2">
-        <v>-3.670761823654175</v>
+        <v>-2.91080117225647</v>
       </c>
       <c r="CZ2">
-        <v>-0.8959686756134033</v>
+        <v>-0.6131353974342346</v>
       </c>
       <c r="DA2">
-        <v>-1.51952338218689</v>
+        <v>-0.3548988103866577</v>
       </c>
       <c r="DB2">
-        <v>-4.872791767120361</v>
+        <v>-5.834529399871826</v>
       </c>
       <c r="DC2">
-        <v>-0.5249175429344177</v>
+        <v>-1.382719993591309</v>
       </c>
       <c r="DD2">
-        <v>-6.083791255950928</v>
+        <v>-7.244939804077148</v>
       </c>
       <c r="DE2">
-        <v>0.971121072769165</v>
+        <v>-0.00981187354773283</v>
       </c>
       <c r="DF2">
-        <v>6.274871826171875</v>
+        <v>4.88652515411377</v>
       </c>
       <c r="DG2">
-        <v>-0.3802463114261627</v>
+        <v>0.8545683026313782</v>
       </c>
       <c r="DH2">
-        <v>7.614384651184082</v>
+        <v>6.50622034072876</v>
       </c>
       <c r="DI2">
-        <v>1.685714840888977</v>
+        <v>0.4760177433490753</v>
       </c>
       <c r="DJ2">
-        <v>-1.583895802497864</v>
+        <v>-2.783381462097168</v>
       </c>
       <c r="DK2">
-        <v>-7.619581699371338</v>
+        <v>-7.962708473205566</v>
       </c>
       <c r="DL2">
-        <v>-1.050953269004822</v>
+        <v>-0.5343257188796997</v>
       </c>
       <c r="DM2">
-        <v>-2.482035875320435</v>
+        <v>-1.435712337493896</v>
       </c>
       <c r="DN2">
-        <v>-0.1984803676605225</v>
+        <v>-0.2156206369400024</v>
       </c>
       <c r="DO2">
-        <v>-6.629031658172607</v>
+        <v>-6.922791481018066</v>
       </c>
       <c r="DP2">
-        <v>-1.96179211139679</v>
+        <v>-3.220615386962891</v>
       </c>
       <c r="DQ2">
-        <v>0.7235632538795471</v>
+        <v>0.688219428062439</v>
       </c>
       <c r="DR2">
-        <v>-2.684810638427734</v>
+        <v>-2.364559173583984</v>
       </c>
       <c r="DS2">
-        <v>-11.65610694885254</v>
+        <v>-12.46462440490723</v>
       </c>
       <c r="DT2">
-        <v>-2.880038261413574</v>
+        <v>-2.217328548431396</v>
       </c>
       <c r="DU2">
-        <v>4.033120155334473</v>
+        <v>4.439935684204102</v>
       </c>
       <c r="DV2">
-        <v>1.781473398208618</v>
+        <v>2.392686605453491</v>
       </c>
       <c r="DW2">
-        <v>-0.2055564224720001</v>
+        <v>0.9371064305305481</v>
       </c>
       <c r="DX2">
-        <v>0.02574920654296875</v>
+        <v>0.3342222571372986</v>
       </c>
       <c r="DY2">
-        <v>-1.630706787109375</v>
+        <v>-0.3595987260341644</v>
       </c>
       <c r="DZ2">
-        <v>-0.04387326166033745</v>
+        <v>0.3953434228897095</v>
       </c>
       <c r="EA2">
-        <v>-3.630724430084229</v>
+        <v>-2.415350198745728</v>
       </c>
       <c r="EB2">
-        <v>0.6742896437644958</v>
+        <v>0.7217133045196533</v>
       </c>
       <c r="EC2">
-        <v>0.3387517333030701</v>
+        <v>-0.8924616575241089</v>
       </c>
       <c r="ED2">
-        <v>-2.088788747787476</v>
+        <v>-2.523523092269897</v>
       </c>
       <c r="EE2">
-        <v>0.1845588535070419</v>
+        <v>0.8784564137458801</v>
       </c>
       <c r="EF2">
-        <v>-6.865340709686279</v>
+        <v>-7.098034381866455</v>
       </c>
       <c r="EG2">
-        <v>-2.964702606201172</v>
+        <v>-2.61102557182312</v>
       </c>
       <c r="EH2">
-        <v>-16.01400375366211</v>
+        <v>-15.70715522766113</v>
       </c>
       <c r="EI2">
-        <v>-12.13881683349609</v>
+        <v>-12.73116016387939</v>
       </c>
       <c r="EJ2">
-        <v>7.567893981933594</v>
+        <v>6.635118007659912</v>
       </c>
       <c r="EK2">
-        <v>-1.123808145523071</v>
+        <v>-1.630445837974548</v>
       </c>
       <c r="EL2">
-        <v>-0.3525574803352356</v>
+        <v>-0.256241112947464</v>
       </c>
       <c r="EM2">
-        <v>1.880336880683899</v>
+        <v>1.249860405921936</v>
       </c>
       <c r="EN2">
-        <v>0.8134065270423889</v>
+        <v>0.1597772985696793</v>
       </c>
       <c r="EO2">
-        <v>11.7985954284668</v>
+        <v>12.61873435974121</v>
       </c>
       <c r="EP2">
-        <v>3.525107145309448</v>
+        <v>2.758068323135376</v>
       </c>
       <c r="EQ2">
-        <v>9.010574340820312</v>
+        <v>7.659517765045166</v>
       </c>
       <c r="ER2">
-        <v>0.9452888965606689</v>
+        <v>1.595540642738342</v>
       </c>
       <c r="ES2">
-        <v>-1.129365086555481</v>
+        <v>-1.639075875282288</v>
       </c>
       <c r="ET2">
-        <v>3.75095009803772</v>
+        <v>4.049740314483643</v>
       </c>
       <c r="EU2">
-        <v>1.136437177658081</v>
+        <v>0.2367694973945618</v>
       </c>
       <c r="EV2">
-        <v>2.292814970016479</v>
+        <v>2.813393115997314</v>
       </c>
       <c r="EW2">
-        <v>12.97858428955078</v>
+        <v>11.72539615631104</v>
       </c>
       <c r="EX2">
-        <v>-1.47318422794342</v>
+        <v>-0.366619735956192</v>
       </c>
       <c r="EY2">
-        <v>-3.044397115707397</v>
+        <v>-3.29578685760498</v>
       </c>
       <c r="EZ2">
-        <v>12.49854183197021</v>
+        <v>13.79536151885986</v>
       </c>
       <c r="FA2">
-        <v>-0.9656742811203003</v>
+        <v>-0.3214590847492218</v>
       </c>
       <c r="FB2">
-        <v>2.635407209396362</v>
+        <v>1.744613289833069</v>
       </c>
       <c r="FC2">
-        <v>-4.595844745635986</v>
+        <v>-5.87272834777832</v>
       </c>
       <c r="FD2">
-        <v>-1.821542978286743</v>
+        <v>-1.849827885627747</v>
       </c>
       <c r="FE2">
-        <v>-9.740818977355957</v>
+        <v>-10.423752784729</v>
       </c>
       <c r="FF2">
-        <v>2.639711141586304</v>
+        <v>1.648443818092346</v>
       </c>
       <c r="FG2">
-        <v>-2.837489604949951</v>
+        <v>-4.16718053817749</v>
       </c>
       <c r="FH2">
-        <v>0.2586467862129211</v>
+        <v>1.540562152862549</v>
       </c>
       <c r="FI2">
-        <v>5.754248142242432</v>
+        <v>4.875038623809814</v>
       </c>
       <c r="FJ2">
-        <v>0.5229321718215942</v>
+        <v>0.4816922843456268</v>
       </c>
       <c r="FK2">
-        <v>-9.744148254394531</v>
+        <v>-9.510616302490234</v>
       </c>
       <c r="FL2">
-        <v>-2.867543697357178</v>
+        <v>-3.856763124465942</v>
       </c>
       <c r="FM2">
-        <v>-0.1047195121645927</v>
+        <v>0.6673473715782166</v>
       </c>
       <c r="FN2">
-        <v>1.581769347190857</v>
+        <v>1.810388326644897</v>
       </c>
       <c r="FO2">
-        <v>-1.51312530040741</v>
+        <v>-2.445569038391113</v>
       </c>
       <c r="FP2">
-        <v>-0.9757073521614075</v>
+        <v>-0.4248526692390442</v>
       </c>
       <c r="FQ2">
-        <v>-2.896419525146484</v>
+        <v>-3.053292751312256</v>
       </c>
       <c r="FR2">
-        <v>1.302668213844299</v>
+        <v>0.9916355609893799</v>
       </c>
       <c r="FS2">
-        <v>-0.2179242521524429</v>
+        <v>0.05177592858672142</v>
       </c>
       <c r="FT2">
-        <v>0.6564714908599854</v>
+        <v>1.762127876281738</v>
       </c>
       <c r="FU2">
-        <v>-1.620937466621399</v>
+        <v>-2.385293960571289</v>
       </c>
       <c r="FV2">
-        <v>-0.8599717020988464</v>
+        <v>0.157597690820694</v>
       </c>
       <c r="FW2">
-        <v>7.283749580383301</v>
+        <v>6.722593784332275</v>
       </c>
       <c r="FX2">
-        <v>-0.7857111692428589</v>
+        <v>0.4537620544433594</v>
       </c>
       <c r="FY2">
-        <v>3.018929719924927</v>
+        <v>1.879842281341553</v>
       </c>
       <c r="FZ2">
-        <v>1.602021217346191</v>
+        <v>0.320576399564743</v>
       </c>
       <c r="GA2">
-        <v>1.21404755115509</v>
+        <v>2.181888103485107</v>
       </c>
       <c r="GB2">
-        <v>-1.750312685966492</v>
+        <v>-0.6375018954277039</v>
       </c>
       <c r="GC2">
-        <v>-14.12238216400146</v>
+        <v>-14.9871129989624</v>
       </c>
       <c r="GD2">
-        <v>9.023359298706055</v>
+        <v>8.04786491394043</v>
       </c>
       <c r="GE2">
-        <v>-2.301918506622314</v>
+        <v>-2.136683940887451</v>
       </c>
       <c r="GF2">
-        <v>0.9179063439369202</v>
+        <v>1.080656409263611</v>
       </c>
       <c r="GG2">
-        <v>0.499893844127655</v>
+        <v>1.329851388931274</v>
       </c>
       <c r="GH2">
-        <v>-0.5571266412734985</v>
+        <v>-1.764901161193848</v>
       </c>
       <c r="GI2">
-        <v>-9.043526649475098</v>
+        <v>-8.5198974609375</v>
       </c>
       <c r="GJ2">
-        <v>0.1073538586497307</v>
+        <v>0.778765857219696</v>
       </c>
       <c r="GK2">
-        <v>-11.78842639923096</v>
+        <v>-12.32862663269043</v>
       </c>
       <c r="GL2">
-        <v>5.128159523010254</v>
+        <v>4.7419753074646</v>
       </c>
       <c r="GM2">
-        <v>-6.682124137878418</v>
+        <v>-7.610926151275635</v>
       </c>
       <c r="GN2">
-        <v>-1.772855997085571</v>
+        <v>-2.975830316543579</v>
       </c>
       <c r="GO2">
-        <v>-5.729416370391846</v>
+        <v>-5.102697372436523</v>
       </c>
       <c r="GP2">
-        <v>-0.2321873158216476</v>
+        <v>-0.3929314911365509</v>
       </c>
       <c r="GQ2">
-        <v>-1.142039656639099</v>
+        <v>0.07724941521883011</v>
       </c>
       <c r="GR2">
-        <v>-2.147242784500122</v>
+        <v>-1.192097425460815</v>
       </c>
       <c r="GS2">
-        <v>10.20791530609131</v>
+        <v>10.71139717102051</v>
       </c>
       <c r="GT2">
-        <v>-0.7926884889602661</v>
+        <v>0.08073073625564575</v>
       </c>
       <c r="GU2">
-        <v>-7.486710548400879</v>
+        <v>-6.840053081512451</v>
       </c>
       <c r="GV2">
-        <v>-3.192144393920898</v>
+        <v>-1.922691464424133</v>
       </c>
       <c r="GW2">
-        <v>7.188958644866943</v>
+        <v>6.745778560638428</v>
       </c>
       <c r="GX2">
-        <v>-2.766485452651978</v>
+        <v>-2.398474454879761</v>
       </c>
       <c r="GY2">
-        <v>-1.104856610298157</v>
+        <v>-0.8502489924430847</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Metals.xlsx
+++ b/static/Models/Classification/Equation/Metals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.123586431145668</v>
+        <v>0.3182899057865143</v>
       </c>
       <c r="C2">
-        <v>-5.299356937408447</v>
+        <v>-5.708327770233154</v>
       </c>
       <c r="D2">
-        <v>9.147862434387207</v>
+        <v>8.860426902770996</v>
       </c>
       <c r="E2">
-        <v>-12.41886043548584</v>
+        <v>-12.13391208648682</v>
       </c>
       <c r="F2">
-        <v>-1.724670767784119</v>
+        <v>-1.593148589134216</v>
       </c>
       <c r="G2">
-        <v>0.4858324229717255</v>
+        <v>0.9248801469802856</v>
       </c>
       <c r="H2">
-        <v>1.236002087593079</v>
+        <v>1.097148418426514</v>
       </c>
       <c r="I2">
-        <v>-0.2023066282272339</v>
+        <v>-0.506804883480072</v>
       </c>
       <c r="J2">
-        <v>-8.700538635253906</v>
+        <v>-8.694126129150391</v>
       </c>
       <c r="K2">
-        <v>-1.275398969650269</v>
+        <v>-0.8856854438781738</v>
       </c>
       <c r="L2">
-        <v>1.304824590682983</v>
+        <v>1.722670316696167</v>
       </c>
       <c r="M2">
-        <v>-0.07830421626567841</v>
+        <v>-0.3334648013114929</v>
       </c>
       <c r="N2">
-        <v>1.25985312461853</v>
+        <v>0.6542157530784607</v>
       </c>
       <c r="O2">
-        <v>8.61848258972168</v>
+        <v>8.274563789367676</v>
       </c>
       <c r="P2">
-        <v>-12.81945896148682</v>
+        <v>-13.38576316833496</v>
       </c>
       <c r="Q2">
-        <v>-7.149410724639893</v>
+        <v>-7.460807800292969</v>
       </c>
       <c r="R2">
-        <v>1.331398487091064</v>
+        <v>1.305763125419617</v>
       </c>
       <c r="S2">
-        <v>-3.797489643096924</v>
+        <v>-4.113871574401855</v>
       </c>
       <c r="T2">
-        <v>3.469022274017334</v>
+        <v>3.151916980743408</v>
       </c>
       <c r="U2">
-        <v>5.686559677124023</v>
+        <v>5.870934009552002</v>
       </c>
       <c r="V2">
-        <v>-1.73811137676239</v>
+        <v>-1.742842674255371</v>
       </c>
       <c r="W2">
-        <v>1.11717677116394</v>
+        <v>1.439450860023499</v>
       </c>
       <c r="X2">
-        <v>0.5378842353820801</v>
+        <v>1.068869233131409</v>
       </c>
       <c r="Y2">
-        <v>2.268872022628784</v>
+        <v>2.351920127868652</v>
       </c>
       <c r="Z2">
-        <v>-1.665358066558838</v>
+        <v>-2.092025279998779</v>
       </c>
       <c r="AA2">
-        <v>3.483197212219238</v>
+        <v>3.876255035400391</v>
       </c>
       <c r="AB2">
-        <v>7.008286952972412</v>
+        <v>7.389920711517334</v>
       </c>
       <c r="AC2">
-        <v>8.25098991394043</v>
+        <v>8.530510902404785</v>
       </c>
       <c r="AD2">
-        <v>0.7262332439422607</v>
+        <v>0.3466053307056427</v>
       </c>
       <c r="AE2">
-        <v>5.158975124359131</v>
+        <v>5.694508075714111</v>
       </c>
       <c r="AF2">
-        <v>0.2135887444019318</v>
+        <v>-0.2801187038421631</v>
       </c>
       <c r="AG2">
-        <v>-2.059047222137451</v>
+        <v>-2.118851184844971</v>
       </c>
       <c r="AH2">
-        <v>-19.92236518859863</v>
+        <v>-20.23327445983887</v>
       </c>
       <c r="AI2">
-        <v>-5.227277755737305</v>
+        <v>-5.412450790405273</v>
       </c>
       <c r="AJ2">
-        <v>-1.482787251472473</v>
+        <v>-1.449958801269531</v>
       </c>
       <c r="AK2">
-        <v>0.5617220997810364</v>
+        <v>0.8559507727622986</v>
       </c>
       <c r="AL2">
-        <v>-1.118843078613281</v>
+        <v>-1.146233439445496</v>
       </c>
       <c r="AM2">
-        <v>-7.085144519805908</v>
+        <v>-6.890667915344238</v>
       </c>
       <c r="AN2">
-        <v>-3.044383764266968</v>
+        <v>-3.235395431518555</v>
       </c>
       <c r="AO2">
-        <v>2.878153800964355</v>
+        <v>2.750896692276001</v>
       </c>
       <c r="AP2">
-        <v>1.14225172996521</v>
+        <v>1.412847638130188</v>
       </c>
       <c r="AQ2">
-        <v>-0.6065052151679993</v>
+        <v>-0.7322527766227722</v>
       </c>
       <c r="AR2">
-        <v>-5.606415748596191</v>
+        <v>-5.923896789550781</v>
       </c>
       <c r="AS2">
-        <v>-2.919471740722656</v>
+        <v>-3.069826364517212</v>
       </c>
       <c r="AT2">
-        <v>3.781540632247925</v>
+        <v>4.276261329650879</v>
       </c>
       <c r="AU2">
-        <v>-16.05133247375488</v>
+        <v>-15.80731391906738</v>
       </c>
       <c r="AV2">
-        <v>-3.338847160339355</v>
+        <v>-2.794251918792725</v>
       </c>
       <c r="AW2">
-        <v>-6.7182297706604</v>
+        <v>-6.551634788513184</v>
       </c>
       <c r="AX2">
-        <v>10.45708847045898</v>
+        <v>10.83394241333008</v>
       </c>
       <c r="AY2">
-        <v>1.380829334259033</v>
+        <v>1.741953730583191</v>
       </c>
       <c r="AZ2">
-        <v>-6.537816047668457</v>
+        <v>-6.695265769958496</v>
       </c>
       <c r="BA2">
-        <v>-9.919123649597168</v>
+        <v>-10.34668445587158</v>
       </c>
       <c r="BB2">
-        <v>-8.32244873046875</v>
+        <v>-8.154209136962891</v>
       </c>
       <c r="BC2">
-        <v>1.179880499839783</v>
+        <v>0.7932870388031006</v>
       </c>
       <c r="BD2">
-        <v>1.622184157371521</v>
+        <v>1.24352753162384</v>
       </c>
       <c r="BE2">
-        <v>-1.719063878059387</v>
+        <v>-2.312389135360718</v>
       </c>
       <c r="BF2">
-        <v>-1.712334990501404</v>
+        <v>-1.715274930000305</v>
       </c>
       <c r="BG2">
-        <v>0.393390953540802</v>
+        <v>0.006642543710768223</v>
       </c>
       <c r="BH2">
-        <v>0.698943555355072</v>
+        <v>0.7889279127120972</v>
       </c>
       <c r="BI2">
-        <v>0.9731722474098206</v>
+        <v>0.6763259768486023</v>
       </c>
       <c r="BJ2">
-        <v>9.429109573364258</v>
+        <v>9.89322566986084</v>
       </c>
       <c r="BK2">
-        <v>-1.019664168357849</v>
+        <v>-1.276918649673462</v>
       </c>
       <c r="BL2">
-        <v>0.49095818400383</v>
+        <v>0.6833309531211853</v>
       </c>
       <c r="BM2">
-        <v>-2.044924020767212</v>
+        <v>-2.362097263336182</v>
       </c>
       <c r="BN2">
-        <v>-6.299083709716797</v>
+        <v>-6.722316741943359</v>
       </c>
       <c r="BO2">
-        <v>2.364872455596924</v>
+        <v>2.57031774520874</v>
       </c>
       <c r="BP2">
-        <v>-4.736599445343018</v>
+        <v>-4.313442230224609</v>
       </c>
       <c r="BQ2">
-        <v>-3.997335433959961</v>
+        <v>-4.253864288330078</v>
       </c>
       <c r="BR2">
-        <v>0.3124658465385437</v>
+        <v>0.1593423336744308</v>
       </c>
       <c r="BS2">
-        <v>-2.470941781997681</v>
+        <v>-2.413955211639404</v>
       </c>
       <c r="BT2">
-        <v>-0.3601725697517395</v>
+        <v>0.08461010456085205</v>
       </c>
       <c r="BU2">
-        <v>-2.893530130386353</v>
+        <v>-3.151073932647705</v>
       </c>
       <c r="BV2">
-        <v>-3.069903373718262</v>
+        <v>-2.655939340591431</v>
       </c>
       <c r="BW2">
-        <v>-0.9562851190567017</v>
+        <v>-0.4204883873462677</v>
       </c>
       <c r="BX2">
-        <v>-6.534783840179443</v>
+        <v>-6.630016326904297</v>
       </c>
       <c r="BY2">
-        <v>-2.08847713470459</v>
+        <v>-1.894171237945557</v>
       </c>
       <c r="BZ2">
-        <v>-12.28346729278564</v>
+        <v>-12.17649173736572</v>
       </c>
       <c r="CA2">
-        <v>-0.7952125072479248</v>
+        <v>-0.5823268294334412</v>
       </c>
       <c r="CB2">
-        <v>-13.35442638397217</v>
+        <v>-13.23020172119141</v>
       </c>
       <c r="CC2">
-        <v>0.7111583948135376</v>
+        <v>0.3540501296520233</v>
       </c>
       <c r="CD2">
-        <v>0.9064946174621582</v>
+        <v>1.316806554794312</v>
       </c>
       <c r="CE2">
-        <v>0.9109628796577454</v>
+        <v>0.5291672348976135</v>
       </c>
       <c r="CF2">
-        <v>-3.360984563827515</v>
+        <v>-3.171661853790283</v>
       </c>
       <c r="CG2">
-        <v>-6.363978385925293</v>
+        <v>-6.529817581176758</v>
       </c>
       <c r="CH2">
-        <v>-5.192471504211426</v>
+        <v>-5.105237483978271</v>
       </c>
       <c r="CI2">
-        <v>1.384759664535522</v>
+        <v>1.000747799873352</v>
       </c>
       <c r="CJ2">
-        <v>1.281014204025269</v>
+        <v>1.363247752189636</v>
       </c>
       <c r="CK2">
-        <v>1.723075747489929</v>
+        <v>1.366827726364136</v>
       </c>
       <c r="CL2">
-        <v>-1.45707106590271</v>
+        <v>-1.801711678504944</v>
       </c>
       <c r="CM2">
-        <v>8.164887428283691</v>
+        <v>7.6674485206604</v>
       </c>
       <c r="CN2">
-        <v>-0.3389106690883636</v>
+        <v>-0.1819949299097061</v>
       </c>
       <c r="CO2">
-        <v>3.082543134689331</v>
+        <v>2.67035436630249</v>
       </c>
       <c r="CP2">
-        <v>2.964795112609863</v>
+        <v>2.218177795410156</v>
       </c>
       <c r="CQ2">
-        <v>0.3946917951107025</v>
+        <v>0.08207940310239792</v>
       </c>
       <c r="CR2">
-        <v>-1.328786253929138</v>
+        <v>-0.9097328186035156</v>
       </c>
       <c r="CS2">
-        <v>-1.291938900947571</v>
+        <v>-1.547033548355103</v>
       </c>
       <c r="CT2">
-        <v>1.548707485198975</v>
+        <v>1.220733284950256</v>
       </c>
       <c r="CU2">
-        <v>1.923355102539062</v>
+        <v>1.560337781906128</v>
       </c>
       <c r="CV2">
-        <v>1.221459031105042</v>
+        <v>1.585725784301758</v>
       </c>
       <c r="CW2">
-        <v>15.17985725402832</v>
+        <v>15.33226013183594</v>
       </c>
       <c r="CX2">
-        <v>-0.07823179662227631</v>
+        <v>0.4372438490390778</v>
       </c>
       <c r="CY2">
-        <v>-2.91080117225647</v>
+        <v>-2.724252700805664</v>
       </c>
       <c r="CZ2">
-        <v>-0.6131353974342346</v>
+        <v>-0.2469479888677597</v>
       </c>
       <c r="DA2">
-        <v>-0.3548988103866577</v>
+        <v>-0.4588367342948914</v>
       </c>
       <c r="DB2">
-        <v>-5.834529399871826</v>
+        <v>-5.451936721801758</v>
       </c>
       <c r="DC2">
-        <v>-1.382719993591309</v>
+        <v>-1.384695649147034</v>
       </c>
       <c r="DD2">
-        <v>-7.244939804077148</v>
+        <v>-7.34200382232666</v>
       </c>
       <c r="DE2">
-        <v>-0.00981187354773283</v>
+        <v>-0.3467237651348114</v>
       </c>
       <c r="DF2">
-        <v>4.88652515411377</v>
+        <v>5.055948734283447</v>
       </c>
       <c r="DG2">
-        <v>0.8545683026313782</v>
+        <v>0.5827566385269165</v>
       </c>
       <c r="DH2">
-        <v>6.50622034072876</v>
+        <v>6.158289909362793</v>
       </c>
       <c r="DI2">
-        <v>0.4760177433490753</v>
+        <v>0.2934986352920532</v>
       </c>
       <c r="DJ2">
-        <v>-2.783381462097168</v>
+        <v>-3.141297578811646</v>
       </c>
       <c r="DK2">
-        <v>-7.962708473205566</v>
+        <v>-7.499500751495361</v>
       </c>
       <c r="DL2">
-        <v>-0.5343257188796997</v>
+        <v>-0.6820551156997681</v>
       </c>
       <c r="DM2">
-        <v>-1.435712337493896</v>
+        <v>-1.500828385353088</v>
       </c>
       <c r="DN2">
-        <v>-0.2156206369400024</v>
+        <v>-0.6053230166435242</v>
       </c>
       <c r="DO2">
-        <v>-6.922791481018066</v>
+        <v>-7.324371337890625</v>
       </c>
       <c r="DP2">
-        <v>-3.220615386962891</v>
+        <v>-3.041596412658691</v>
       </c>
       <c r="DQ2">
-        <v>0.688219428062439</v>
+        <v>0.318764328956604</v>
       </c>
       <c r="DR2">
-        <v>-2.364559173583984</v>
+        <v>-2.115325212478638</v>
       </c>
       <c r="DS2">
-        <v>-12.46462440490723</v>
+        <v>-12.70572471618652</v>
       </c>
       <c r="DT2">
-        <v>-2.217328548431396</v>
+        <v>-2.54466986656189</v>
       </c>
       <c r="DU2">
-        <v>4.439935684204102</v>
+        <v>4.289959907531738</v>
       </c>
       <c r="DV2">
-        <v>2.392686605453491</v>
+        <v>2.377112150192261</v>
       </c>
       <c r="DW2">
-        <v>0.9371064305305481</v>
+        <v>1.315161943435669</v>
       </c>
       <c r="DX2">
-        <v>0.3342222571372986</v>
+        <v>0.01160786859691143</v>
       </c>
       <c r="DY2">
-        <v>-0.3595987260341644</v>
+        <v>-0.3647863268852234</v>
       </c>
       <c r="DZ2">
-        <v>0.3953434228897095</v>
+        <v>-0.01860237121582031</v>
       </c>
       <c r="EA2">
-        <v>-2.415350198745728</v>
+        <v>-2.101672649383545</v>
       </c>
       <c r="EB2">
-        <v>0.7217133045196533</v>
+        <v>0.3421532213687897</v>
       </c>
       <c r="EC2">
-        <v>-0.8924616575241089</v>
+        <v>-0.7859378457069397</v>
       </c>
       <c r="ED2">
-        <v>-2.523523092269897</v>
+        <v>-2.815935850143433</v>
       </c>
       <c r="EE2">
-        <v>0.8784564137458801</v>
+        <v>0.5143141150474548</v>
       </c>
       <c r="EF2">
-        <v>-7.098034381866455</v>
+        <v>-7.161558628082275</v>
       </c>
       <c r="EG2">
-        <v>-2.61102557182312</v>
+        <v>-2.145340204238892</v>
       </c>
       <c r="EH2">
-        <v>-15.70715522766113</v>
+        <v>-15.36939716339111</v>
       </c>
       <c r="EI2">
-        <v>-12.73116016387939</v>
+        <v>-12.77808666229248</v>
       </c>
       <c r="EJ2">
-        <v>6.635118007659912</v>
+        <v>6.122884273529053</v>
       </c>
       <c r="EK2">
-        <v>-1.630445837974548</v>
+        <v>-1.984332919120789</v>
       </c>
       <c r="EL2">
-        <v>-0.256241112947464</v>
+        <v>-0.6347638964653015</v>
       </c>
       <c r="EM2">
-        <v>1.249860405921936</v>
+        <v>1.60168194770813</v>
       </c>
       <c r="EN2">
-        <v>0.1597772985696793</v>
+        <v>-0.276263415813446</v>
       </c>
       <c r="EO2">
-        <v>12.61873435974121</v>
+        <v>12.4192533493042</v>
       </c>
       <c r="EP2">
-        <v>2.758068323135376</v>
+        <v>2.552771806716919</v>
       </c>
       <c r="EQ2">
-        <v>7.659517765045166</v>
+        <v>7.230018138885498</v>
       </c>
       <c r="ER2">
-        <v>1.595540642738342</v>
+        <v>1.542578816413879</v>
       </c>
       <c r="ES2">
-        <v>-1.639075875282288</v>
+        <v>-2.070324182510376</v>
       </c>
       <c r="ET2">
-        <v>4.049740314483643</v>
+        <v>3.523615121841431</v>
       </c>
       <c r="EU2">
-        <v>0.2367694973945618</v>
+        <v>-0.3506404161453247</v>
       </c>
       <c r="EV2">
-        <v>2.813393115997314</v>
+        <v>2.465615272521973</v>
       </c>
       <c r="EW2">
-        <v>11.72539615631104</v>
+        <v>11.53781890869141</v>
       </c>
       <c r="EX2">
-        <v>-0.366619735956192</v>
+        <v>-0.07632679492235184</v>
       </c>
       <c r="EY2">
-        <v>-3.29578685760498</v>
+        <v>-3.446727514266968</v>
       </c>
       <c r="EZ2">
-        <v>13.79536151885986</v>
+        <v>13.24360466003418</v>
       </c>
       <c r="FA2">
-        <v>-0.3214590847492218</v>
+        <v>-0.3738045394420624</v>
       </c>
       <c r="FB2">
-        <v>1.744613289833069</v>
+        <v>1.399494290351868</v>
       </c>
       <c r="FC2">
-        <v>-5.87272834777832</v>
+        <v>-6.055126667022705</v>
       </c>
       <c r="FD2">
-        <v>-1.849827885627747</v>
+        <v>-1.454499363899231</v>
       </c>
       <c r="FE2">
-        <v>-10.423752784729</v>
+        <v>-10.62118625640869</v>
       </c>
       <c r="FF2">
-        <v>1.648443818092346</v>
+        <v>2.007031202316284</v>
       </c>
       <c r="FG2">
-        <v>-4.16718053817749</v>
+        <v>-4.192516326904297</v>
       </c>
       <c r="FH2">
-        <v>1.540562152862549</v>
+        <v>1.345629930496216</v>
       </c>
       <c r="FI2">
-        <v>4.875038623809814</v>
+        <v>4.560895919799805</v>
       </c>
       <c r="FJ2">
-        <v>0.4816922843456268</v>
+        <v>0.1579160094261169</v>
       </c>
       <c r="FK2">
-        <v>-9.510616302490234</v>
+        <v>-9.541032791137695</v>
       </c>
       <c r="FL2">
-        <v>-3.856763124465942</v>
+        <v>-3.555542469024658</v>
       </c>
       <c r="FM2">
-        <v>0.6673473715782166</v>
+        <v>0.8591446280479431</v>
       </c>
       <c r="FN2">
-        <v>1.810388326644897</v>
+        <v>2.062878370285034</v>
       </c>
       <c r="FO2">
-        <v>-2.445569038391113</v>
+        <v>-2.798338651657104</v>
       </c>
       <c r="FP2">
-        <v>-0.4248526692390442</v>
+        <v>-0.1993485689163208</v>
       </c>
       <c r="FQ2">
-        <v>-3.053292751312256</v>
+        <v>-3.441789865493774</v>
       </c>
       <c r="FR2">
-        <v>0.9916355609893799</v>
+        <v>0.6191892027854919</v>
       </c>
       <c r="FS2">
-        <v>0.05177592858672142</v>
+        <v>-0.2851158976554871</v>
       </c>
       <c r="FT2">
-        <v>1.762127876281738</v>
+        <v>1.428371071815491</v>
       </c>
       <c r="FU2">
-        <v>-2.385293960571289</v>
+        <v>-2.675512552261353</v>
       </c>
       <c r="FV2">
-        <v>0.157597690820694</v>
+        <v>-0.1531088352203369</v>
       </c>
       <c r="FW2">
-        <v>6.722593784332275</v>
+        <v>6.475728034973145</v>
       </c>
       <c r="FX2">
-        <v>0.4537620544433594</v>
+        <v>0.2454880326986313</v>
       </c>
       <c r="FY2">
-        <v>1.879842281341553</v>
+        <v>2.228066205978394</v>
       </c>
       <c r="FZ2">
-        <v>0.320576399564743</v>
+        <v>0.4478428661823273</v>
       </c>
       <c r="GA2">
-        <v>2.181888103485107</v>
+        <v>2.016585111618042</v>
       </c>
       <c r="GB2">
-        <v>-0.6375018954277039</v>
+        <v>-0.2007824927568436</v>
       </c>
       <c r="GC2">
-        <v>-14.9871129989624</v>
+        <v>-15.26950645446777</v>
       </c>
       <c r="GD2">
-        <v>8.04786491394043</v>
+        <v>7.831557273864746</v>
       </c>
       <c r="GE2">
-        <v>-2.136683940887451</v>
+        <v>-2.514632225036621</v>
       </c>
       <c r="GF2">
-        <v>1.080656409263611</v>
+        <v>1.39297890663147</v>
       </c>
       <c r="GG2">
-        <v>1.329851388931274</v>
+        <v>1.727818489074707</v>
       </c>
       <c r="GH2">
-        <v>-1.764901161193848</v>
+        <v>-1.634815692901611</v>
       </c>
       <c r="GI2">
-        <v>-8.5198974609375</v>
+        <v>-7.908552646636963</v>
       </c>
       <c r="GJ2">
-        <v>0.778765857219696</v>
+        <v>0.8122430443763733</v>
       </c>
       <c r="GK2">
-        <v>-12.32862663269043</v>
+        <v>-12.6794548034668</v>
       </c>
       <c r="GL2">
-        <v>4.7419753074646</v>
+        <v>4.939408302307129</v>
       </c>
       <c r="GM2">
-        <v>-7.610926151275635</v>
+        <v>-8.048129081726074</v>
       </c>
       <c r="GN2">
-        <v>-2.975830316543579</v>
+        <v>-2.603631496429443</v>
       </c>
       <c r="GO2">
-        <v>-5.102697372436523</v>
+        <v>-5.157751083374023</v>
       </c>
       <c r="GP2">
-        <v>-0.3929314911365509</v>
+        <v>-0.7811880111694336</v>
       </c>
       <c r="GQ2">
-        <v>0.07724941521883011</v>
+        <v>0.5049864649772644</v>
       </c>
       <c r="GR2">
-        <v>-1.192097425460815</v>
+        <v>-0.6117584705352783</v>
       </c>
       <c r="GS2">
-        <v>10.71139717102051</v>
+        <v>10.92780590057373</v>
       </c>
       <c r="GT2">
-        <v>0.08073073625564575</v>
+        <v>-0.09801378101110458</v>
       </c>
       <c r="GU2">
-        <v>-6.840053081512451</v>
+        <v>-6.501436710357666</v>
       </c>
       <c r="GV2">
-        <v>-1.922691464424133</v>
+        <v>-1.961567997932434</v>
       </c>
       <c r="GW2">
-        <v>6.745778560638428</v>
+        <v>7.239084243774414</v>
       </c>
       <c r="GX2">
-        <v>-2.398474454879761</v>
+        <v>-2.84934663772583</v>
       </c>
       <c r="GY2">
-        <v>-0.8502489924430847</v>
+        <v>-1.228293061256409</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Metals.xlsx
+++ b/static/Models/Classification/Equation/Metals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.3182899057865143</v>
+        <v>0.2023572027683258</v>
       </c>
       <c r="C2">
-        <v>-5.708327770233154</v>
+        <v>-6.325602054595947</v>
       </c>
       <c r="D2">
-        <v>8.860426902770996</v>
+        <v>8.29649543762207</v>
       </c>
       <c r="E2">
-        <v>-12.13391208648682</v>
+        <v>-10.69678211212158</v>
       </c>
       <c r="F2">
-        <v>-1.593148589134216</v>
+        <v>-0.5028786063194275</v>
       </c>
       <c r="G2">
-        <v>0.9248801469802856</v>
+        <v>0.9801221489906311</v>
       </c>
       <c r="H2">
-        <v>1.097148418426514</v>
+        <v>0.5893946886062622</v>
       </c>
       <c r="I2">
-        <v>-0.506804883480072</v>
+        <v>0.1624061018228531</v>
       </c>
       <c r="J2">
-        <v>-8.694126129150391</v>
+        <v>-7.939620971679688</v>
       </c>
       <c r="K2">
-        <v>-0.8856854438781738</v>
+        <v>-0.9730920195579529</v>
       </c>
       <c r="L2">
-        <v>1.722670316696167</v>
+        <v>2.012993097305298</v>
       </c>
       <c r="M2">
-        <v>-0.3334648013114929</v>
+        <v>-0.918574333190918</v>
       </c>
       <c r="N2">
-        <v>0.6542157530784607</v>
+        <v>-1.159471273422241</v>
       </c>
       <c r="O2">
-        <v>8.274563789367676</v>
+        <v>8.851970672607422</v>
       </c>
       <c r="P2">
-        <v>-13.38576316833496</v>
+        <v>-13.71299934387207</v>
       </c>
       <c r="Q2">
-        <v>-7.460807800292969</v>
+        <v>-7.653212547302246</v>
       </c>
       <c r="R2">
-        <v>1.305763125419617</v>
+        <v>0.827972412109375</v>
       </c>
       <c r="S2">
-        <v>-4.113871574401855</v>
+        <v>-5.02365255355835</v>
       </c>
       <c r="T2">
-        <v>3.151916980743408</v>
+        <v>3.956673860549927</v>
       </c>
       <c r="U2">
-        <v>5.870934009552002</v>
+        <v>5.627538681030273</v>
       </c>
       <c r="V2">
-        <v>-1.742842674255371</v>
+        <v>-0.914146900177002</v>
       </c>
       <c r="W2">
-        <v>1.439450860023499</v>
+        <v>2.173727989196777</v>
       </c>
       <c r="X2">
-        <v>1.068869233131409</v>
+        <v>1.811422824859619</v>
       </c>
       <c r="Y2">
-        <v>2.351920127868652</v>
+        <v>1.847705245018005</v>
       </c>
       <c r="Z2">
-        <v>-2.092025279998779</v>
+        <v>-1.394447565078735</v>
       </c>
       <c r="AA2">
-        <v>3.876255035400391</v>
+        <v>2.889398574829102</v>
       </c>
       <c r="AB2">
-        <v>7.389920711517334</v>
+        <v>5.860273361206055</v>
       </c>
       <c r="AC2">
-        <v>8.530510902404785</v>
+        <v>7.50554084777832</v>
       </c>
       <c r="AD2">
-        <v>0.3466053307056427</v>
+        <v>0.9757511615753174</v>
       </c>
       <c r="AE2">
-        <v>5.694508075714111</v>
+        <v>4.603044509887695</v>
       </c>
       <c r="AF2">
-        <v>-0.2801187038421631</v>
+        <v>-2.08409595489502</v>
       </c>
       <c r="AG2">
-        <v>-2.118851184844971</v>
+        <v>-3.747419834136963</v>
       </c>
       <c r="AH2">
-        <v>-20.23327445983887</v>
+        <v>-20.12261772155762</v>
       </c>
       <c r="AI2">
-        <v>-5.412450790405273</v>
+        <v>-4.246129512786865</v>
       </c>
       <c r="AJ2">
-        <v>-1.449958801269531</v>
+        <v>0.1655340790748596</v>
       </c>
       <c r="AK2">
-        <v>0.8559507727622986</v>
+        <v>0.6081427931785583</v>
       </c>
       <c r="AL2">
-        <v>-1.146233439445496</v>
+        <v>-1.083935379981995</v>
       </c>
       <c r="AM2">
-        <v>-6.890667915344238</v>
+        <v>-6.89834451675415</v>
       </c>
       <c r="AN2">
-        <v>-3.235395431518555</v>
+        <v>-3.123826265335083</v>
       </c>
       <c r="AO2">
-        <v>2.750896692276001</v>
+        <v>1.930898666381836</v>
       </c>
       <c r="AP2">
-        <v>1.412847638130188</v>
+        <v>2.487285852432251</v>
       </c>
       <c r="AQ2">
-        <v>-0.7322527766227722</v>
+        <v>-0.1716673523187637</v>
       </c>
       <c r="AR2">
-        <v>-5.923896789550781</v>
+        <v>-4.006515979766846</v>
       </c>
       <c r="AS2">
-        <v>-3.069826364517212</v>
+        <v>-2.618686437606812</v>
       </c>
       <c r="AT2">
-        <v>4.276261329650879</v>
+        <v>4.447469711303711</v>
       </c>
       <c r="AU2">
-        <v>-15.80731391906738</v>
+        <v>-16.59136772155762</v>
       </c>
       <c r="AV2">
-        <v>-2.794251918792725</v>
+        <v>-2.163913488388062</v>
       </c>
       <c r="AW2">
-        <v>-6.551634788513184</v>
+        <v>-7.428313732147217</v>
       </c>
       <c r="AX2">
-        <v>10.83394241333008</v>
+        <v>12.45568656921387</v>
       </c>
       <c r="AY2">
-        <v>1.741953730583191</v>
+        <v>1.240291237831116</v>
       </c>
       <c r="AZ2">
-        <v>-6.695265769958496</v>
+        <v>-5.771315574645996</v>
       </c>
       <c r="BA2">
-        <v>-10.34668445587158</v>
+        <v>-9.98979663848877</v>
       </c>
       <c r="BB2">
-        <v>-8.154209136962891</v>
+        <v>-8.437036514282227</v>
       </c>
       <c r="BC2">
-        <v>0.7932870388031006</v>
+        <v>0.06094176322221756</v>
       </c>
       <c r="BD2">
-        <v>1.24352753162384</v>
+        <v>1.854828596115112</v>
       </c>
       <c r="BE2">
-        <v>-2.312389135360718</v>
+        <v>-2.331140279769897</v>
       </c>
       <c r="BF2">
-        <v>-1.715274930000305</v>
+        <v>-1.84004020690918</v>
       </c>
       <c r="BG2">
-        <v>0.006642543710768223</v>
+        <v>0.887789785861969</v>
       </c>
       <c r="BH2">
-        <v>0.7889279127120972</v>
+        <v>0.2707406282424927</v>
       </c>
       <c r="BI2">
-        <v>0.6763259768486023</v>
+        <v>1.309577584266663</v>
       </c>
       <c r="BJ2">
-        <v>9.89322566986084</v>
+        <v>9.676735877990723</v>
       </c>
       <c r="BK2">
-        <v>-1.276918649673462</v>
+        <v>-0.7796752452850342</v>
       </c>
       <c r="BL2">
-        <v>0.6833309531211853</v>
+        <v>0.108215294778347</v>
       </c>
       <c r="BM2">
-        <v>-2.362097263336182</v>
+        <v>-2.967390775680542</v>
       </c>
       <c r="BN2">
-        <v>-6.722316741943359</v>
+        <v>-7.440148830413818</v>
       </c>
       <c r="BO2">
-        <v>2.57031774520874</v>
+        <v>3.766510248184204</v>
       </c>
       <c r="BP2">
-        <v>-4.313442230224609</v>
+        <v>-3.393641471862793</v>
       </c>
       <c r="BQ2">
-        <v>-4.253864288330078</v>
+        <v>-2.580439567565918</v>
       </c>
       <c r="BR2">
-        <v>0.1593423336744308</v>
+        <v>0.04926244169473648</v>
       </c>
       <c r="BS2">
-        <v>-2.413955211639404</v>
+        <v>-0.9794362783432007</v>
       </c>
       <c r="BT2">
-        <v>0.08461010456085205</v>
+        <v>-0.4884898960590363</v>
       </c>
       <c r="BU2">
-        <v>-3.151073932647705</v>
+        <v>-2.331347703933716</v>
       </c>
       <c r="BV2">
-        <v>-2.655939340591431</v>
+        <v>-2.253722429275513</v>
       </c>
       <c r="BW2">
-        <v>-0.4204883873462677</v>
+        <v>1.119843125343323</v>
       </c>
       <c r="BX2">
-        <v>-6.630016326904297</v>
+        <v>-5.86686897277832</v>
       </c>
       <c r="BY2">
-        <v>-1.894171237945557</v>
+        <v>-1.350104808807373</v>
       </c>
       <c r="BZ2">
-        <v>-12.17649173736572</v>
+        <v>-11.8297119140625</v>
       </c>
       <c r="CA2">
-        <v>-0.5823268294334412</v>
+        <v>-1.050319075584412</v>
       </c>
       <c r="CB2">
-        <v>-13.23020172119141</v>
+        <v>-13.4948034286499</v>
       </c>
       <c r="CC2">
-        <v>0.3540501296520233</v>
+        <v>1.060825109481812</v>
       </c>
       <c r="CD2">
-        <v>1.316806554794312</v>
+        <v>0.4250786900520325</v>
       </c>
       <c r="CE2">
-        <v>0.5291672348976135</v>
+        <v>0.6131371259689331</v>
       </c>
       <c r="CF2">
-        <v>-3.171661853790283</v>
+        <v>-3.224876642227173</v>
       </c>
       <c r="CG2">
-        <v>-6.529817581176758</v>
+        <v>-6.113348007202148</v>
       </c>
       <c r="CH2">
-        <v>-5.105237483978271</v>
+        <v>-5.075141906738281</v>
       </c>
       <c r="CI2">
-        <v>1.000747799873352</v>
+        <v>1.391909599304199</v>
       </c>
       <c r="CJ2">
-        <v>1.363247752189636</v>
+        <v>1.370843052864075</v>
       </c>
       <c r="CK2">
-        <v>1.366827726364136</v>
+        <v>2.361984252929688</v>
       </c>
       <c r="CL2">
-        <v>-1.801711678504944</v>
+        <v>-1.165401339530945</v>
       </c>
       <c r="CM2">
-        <v>7.6674485206604</v>
+        <v>8.38693904876709</v>
       </c>
       <c r="CN2">
-        <v>-0.1819949299097061</v>
+        <v>0.332940399646759</v>
       </c>
       <c r="CO2">
-        <v>2.67035436630249</v>
+        <v>3.553536891937256</v>
       </c>
       <c r="CP2">
-        <v>2.218177795410156</v>
+        <v>2.186214685440063</v>
       </c>
       <c r="CQ2">
-        <v>0.08207940310239792</v>
+        <v>0.3649912178516388</v>
       </c>
       <c r="CR2">
-        <v>-0.9097328186035156</v>
+        <v>-0.9087033271789551</v>
       </c>
       <c r="CS2">
-        <v>-1.547033548355103</v>
+        <v>-1.213004946708679</v>
       </c>
       <c r="CT2">
-        <v>1.220733284950256</v>
+        <v>1.710739731788635</v>
       </c>
       <c r="CU2">
-        <v>1.560337781906128</v>
+        <v>0.5915831327438354</v>
       </c>
       <c r="CV2">
-        <v>1.585725784301758</v>
+        <v>1.987830638885498</v>
       </c>
       <c r="CW2">
-        <v>15.33226013183594</v>
+        <v>14.40405082702637</v>
       </c>
       <c r="CX2">
-        <v>0.4372438490390778</v>
+        <v>-0.01752015762031078</v>
       </c>
       <c r="CY2">
-        <v>-2.724252700805664</v>
+        <v>-3.2386314868927</v>
       </c>
       <c r="CZ2">
-        <v>-0.2469479888677597</v>
+        <v>-0.9378312230110168</v>
       </c>
       <c r="DA2">
-        <v>-0.4588367342948914</v>
+        <v>0.6870121359825134</v>
       </c>
       <c r="DB2">
-        <v>-5.451936721801758</v>
+        <v>-6.01404857635498</v>
       </c>
       <c r="DC2">
-        <v>-1.384695649147034</v>
+        <v>0.401399552822113</v>
       </c>
       <c r="DD2">
-        <v>-7.34200382232666</v>
+        <v>-6.958332538604736</v>
       </c>
       <c r="DE2">
-        <v>-0.3467237651348114</v>
+        <v>-0.09027467668056488</v>
       </c>
       <c r="DF2">
-        <v>5.055948734283447</v>
+        <v>4.93548059463501</v>
       </c>
       <c r="DG2">
-        <v>0.5827566385269165</v>
+        <v>0.7812230587005615</v>
       </c>
       <c r="DH2">
-        <v>6.158289909362793</v>
+        <v>6.005796909332275</v>
       </c>
       <c r="DI2">
-        <v>0.2934986352920532</v>
+        <v>1.187695145606995</v>
       </c>
       <c r="DJ2">
-        <v>-3.141297578811646</v>
+        <v>-3.515776634216309</v>
       </c>
       <c r="DK2">
-        <v>-7.499500751495361</v>
+        <v>-7.471968173980713</v>
       </c>
       <c r="DL2">
-        <v>-0.6820551156997681</v>
+        <v>-0.9165913462638855</v>
       </c>
       <c r="DM2">
-        <v>-1.500828385353088</v>
+        <v>-1.115174293518066</v>
       </c>
       <c r="DN2">
-        <v>-0.6053230166435242</v>
+        <v>0.03665553778409958</v>
       </c>
       <c r="DO2">
-        <v>-7.324371337890625</v>
+        <v>-7.232906341552734</v>
       </c>
       <c r="DP2">
-        <v>-3.041596412658691</v>
+        <v>-3.073433876037598</v>
       </c>
       <c r="DQ2">
-        <v>0.318764328956604</v>
+        <v>0.6047269701957703</v>
       </c>
       <c r="DR2">
-        <v>-2.115325212478638</v>
+        <v>-1.542880535125732</v>
       </c>
       <c r="DS2">
-        <v>-12.70572471618652</v>
+        <v>-13.21991634368896</v>
       </c>
       <c r="DT2">
-        <v>-2.54466986656189</v>
+        <v>-3.272776365280151</v>
       </c>
       <c r="DU2">
-        <v>4.289959907531738</v>
+        <v>3.491377592086792</v>
       </c>
       <c r="DV2">
-        <v>2.377112150192261</v>
+        <v>1.381355881690979</v>
       </c>
       <c r="DW2">
-        <v>1.315161943435669</v>
+        <v>0.3750928044319153</v>
       </c>
       <c r="DX2">
-        <v>0.01160786859691143</v>
+        <v>0.6126151084899902</v>
       </c>
       <c r="DY2">
-        <v>-0.3647863268852234</v>
+        <v>-0.8412199020385742</v>
       </c>
       <c r="DZ2">
-        <v>-0.01860237121582031</v>
+        <v>1.936521053314209</v>
       </c>
       <c r="EA2">
-        <v>-2.101672649383545</v>
+        <v>-1.780812859535217</v>
       </c>
       <c r="EB2">
-        <v>0.3421532213687897</v>
+        <v>1.001946449279785</v>
       </c>
       <c r="EC2">
-        <v>-0.7859378457069397</v>
+        <v>-0.861704409122467</v>
       </c>
       <c r="ED2">
-        <v>-2.815935850143433</v>
+        <v>-2.079298973083496</v>
       </c>
       <c r="EE2">
-        <v>0.5143141150474548</v>
+        <v>0.9193419218063354</v>
       </c>
       <c r="EF2">
-        <v>-7.161558628082275</v>
+        <v>-5.854010581970215</v>
       </c>
       <c r="EG2">
-        <v>-2.145340204238892</v>
+        <v>-2.816080570220947</v>
       </c>
       <c r="EH2">
-        <v>-15.36939716339111</v>
+        <v>-14.43121814727783</v>
       </c>
       <c r="EI2">
-        <v>-12.77808666229248</v>
+        <v>-12.37505626678467</v>
       </c>
       <c r="EJ2">
-        <v>6.122884273529053</v>
+        <v>6.376654624938965</v>
       </c>
       <c r="EK2">
-        <v>-1.984332919120789</v>
+        <v>-1.21892774105072</v>
       </c>
       <c r="EL2">
-        <v>-0.6347638964653015</v>
+        <v>0.3483095765113831</v>
       </c>
       <c r="EM2">
-        <v>1.60168194770813</v>
+        <v>2.644062757492065</v>
       </c>
       <c r="EN2">
-        <v>-0.276263415813446</v>
+        <v>0.6034247875213623</v>
       </c>
       <c r="EO2">
-        <v>12.4192533493042</v>
+        <v>12.78099727630615</v>
       </c>
       <c r="EP2">
-        <v>2.552771806716919</v>
+        <v>2.92282509803772</v>
       </c>
       <c r="EQ2">
-        <v>7.230018138885498</v>
+        <v>6.856975555419922</v>
       </c>
       <c r="ER2">
-        <v>1.542578816413879</v>
+        <v>1.561429023742676</v>
       </c>
       <c r="ES2">
-        <v>-2.070324182510376</v>
+        <v>-0.5553348660469055</v>
       </c>
       <c r="ET2">
-        <v>3.523615121841431</v>
+        <v>3.0792236328125</v>
       </c>
       <c r="EU2">
-        <v>-0.3506404161453247</v>
+        <v>-1.001056909561157</v>
       </c>
       <c r="EV2">
-        <v>2.465615272521973</v>
+        <v>2.032108783721924</v>
       </c>
       <c r="EW2">
-        <v>11.53781890869141</v>
+        <v>11.63676834106445</v>
       </c>
       <c r="EX2">
-        <v>-0.07632679492235184</v>
+        <v>1.090264320373535</v>
       </c>
       <c r="EY2">
-        <v>-3.446727514266968</v>
+        <v>-2.333229303359985</v>
       </c>
       <c r="EZ2">
-        <v>13.24360466003418</v>
+        <v>13.00521087646484</v>
       </c>
       <c r="FA2">
-        <v>-0.3738045394420624</v>
+        <v>-1.829672694206238</v>
       </c>
       <c r="FB2">
-        <v>1.399494290351868</v>
+        <v>1.419935703277588</v>
       </c>
       <c r="FC2">
-        <v>-6.055126667022705</v>
+        <v>-5.601579666137695</v>
       </c>
       <c r="FD2">
-        <v>-1.454499363899231</v>
+        <v>-2.220635175704956</v>
       </c>
       <c r="FE2">
-        <v>-10.62118625640869</v>
+        <v>-11.24063301086426</v>
       </c>
       <c r="FF2">
-        <v>2.007031202316284</v>
+        <v>2.131513357162476</v>
       </c>
       <c r="FG2">
-        <v>-4.192516326904297</v>
+        <v>-3.965937614440918</v>
       </c>
       <c r="FH2">
-        <v>1.345629930496216</v>
+        <v>1.543301105499268</v>
       </c>
       <c r="FI2">
-        <v>4.560895919799805</v>
+        <v>4.628596305847168</v>
       </c>
       <c r="FJ2">
-        <v>0.1579160094261169</v>
+        <v>0.7368180155754089</v>
       </c>
       <c r="FK2">
-        <v>-9.541032791137695</v>
+        <v>-8.213770866394043</v>
       </c>
       <c r="FL2">
-        <v>-3.555542469024658</v>
+        <v>-3.615948438644409</v>
       </c>
       <c r="FM2">
-        <v>0.8591446280479431</v>
+        <v>1.145656943321228</v>
       </c>
       <c r="FN2">
-        <v>2.062878370285034</v>
+        <v>2.072800159454346</v>
       </c>
       <c r="FO2">
-        <v>-2.798338651657104</v>
+        <v>-0.7324129343032837</v>
       </c>
       <c r="FP2">
-        <v>-0.1993485689163208</v>
+        <v>0.7713939547538757</v>
       </c>
       <c r="FQ2">
-        <v>-3.441789865493774</v>
+        <v>-2.378620386123657</v>
       </c>
       <c r="FR2">
-        <v>0.6191892027854919</v>
+        <v>0.6440468430519104</v>
       </c>
       <c r="FS2">
-        <v>-0.2851158976554871</v>
+        <v>0.3134600222110748</v>
       </c>
       <c r="FT2">
-        <v>1.428371071815491</v>
+        <v>1.853621244430542</v>
       </c>
       <c r="FU2">
-        <v>-2.675512552261353</v>
+        <v>-1.820673942565918</v>
       </c>
       <c r="FV2">
-        <v>-0.1531088352203369</v>
+        <v>0.74853515625</v>
       </c>
       <c r="FW2">
-        <v>6.475728034973145</v>
+        <v>7.346970558166504</v>
       </c>
       <c r="FX2">
-        <v>0.2454880326986313</v>
+        <v>-0.0008455050992779434</v>
       </c>
       <c r="FY2">
-        <v>2.228066205978394</v>
+        <v>0.2963400185108185</v>
       </c>
       <c r="FZ2">
-        <v>0.4478428661823273</v>
+        <v>-0.1588874757289886</v>
       </c>
       <c r="GA2">
-        <v>2.016585111618042</v>
+        <v>0.6531034111976624</v>
       </c>
       <c r="GB2">
-        <v>-0.2007824927568436</v>
+        <v>-0.6938020586967468</v>
       </c>
       <c r="GC2">
-        <v>-15.26950645446777</v>
+        <v>-14.02706241607666</v>
       </c>
       <c r="GD2">
-        <v>7.831557273864746</v>
+        <v>8.506010055541992</v>
       </c>
       <c r="GE2">
-        <v>-2.514632225036621</v>
+        <v>-1.53593647480011</v>
       </c>
       <c r="GF2">
-        <v>1.39297890663147</v>
+        <v>2.060926914215088</v>
       </c>
       <c r="GG2">
-        <v>1.727818489074707</v>
+        <v>0.3656200170516968</v>
       </c>
       <c r="GH2">
-        <v>-1.634815692901611</v>
+        <v>-3.467719316482544</v>
       </c>
       <c r="GI2">
-        <v>-7.908552646636963</v>
+        <v>-8.972389221191406</v>
       </c>
       <c r="GJ2">
-        <v>0.8122430443763733</v>
+        <v>0.1978897452354431</v>
       </c>
       <c r="GK2">
-        <v>-12.6794548034668</v>
+        <v>-11.56094741821289</v>
       </c>
       <c r="GL2">
-        <v>4.939408302307129</v>
+        <v>6.561008930206299</v>
       </c>
       <c r="GM2">
-        <v>-8.048129081726074</v>
+        <v>-7.912098407745361</v>
       </c>
       <c r="GN2">
-        <v>-2.603631496429443</v>
+        <v>-1.655278444290161</v>
       </c>
       <c r="GO2">
-        <v>-5.157751083374023</v>
+        <v>-7.362237930297852</v>
       </c>
       <c r="GP2">
-        <v>-0.7811880111694336</v>
+        <v>-0.2051993608474731</v>
       </c>
       <c r="GQ2">
-        <v>0.5049864649772644</v>
+        <v>0.3191730082035065</v>
       </c>
       <c r="GR2">
-        <v>-0.6117584705352783</v>
+        <v>-1.947558999061584</v>
       </c>
       <c r="GS2">
-        <v>10.92780590057373</v>
+        <v>12.37191104888916</v>
       </c>
       <c r="GT2">
-        <v>-0.09801378101110458</v>
+        <v>-0.1390651166439056</v>
       </c>
       <c r="GU2">
-        <v>-6.501436710357666</v>
+        <v>-7.276910305023193</v>
       </c>
       <c r="GV2">
-        <v>-1.961567997932434</v>
+        <v>-1.30632495880127</v>
       </c>
       <c r="GW2">
-        <v>7.239084243774414</v>
+        <v>6.911802291870117</v>
       </c>
       <c r="GX2">
-        <v>-2.84934663772583</v>
+        <v>-2.70136022567749</v>
       </c>
       <c r="GY2">
-        <v>-1.228293061256409</v>
+        <v>-0.5743464231491089</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Metals.xlsx
+++ b/static/Models/Classification/Equation/Metals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1404096484184265</v>
+        <v>0.3075801730155945</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.449982166290283</v>
+        <v>-6.10222864151001</v>
       </c>
       <c r="D2" t="n">
-        <v>7.503851890563965</v>
+        <v>7.344475269317627</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28529644012451</v>
+        <v>-10.9876127243042</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01395594608038664</v>
+        <v>-0.516832709312439</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4303342700004578</v>
+        <v>-0.8139845728874207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00348527473397553</v>
+        <v>-0.6049918532371521</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02293497696518898</v>
+        <v>-0.2339479923248291</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.319043159484863</v>
+        <v>-7.975357532501221</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.627509951591492</v>
+        <v>-1.36366868019104</v>
       </c>
       <c r="L2" t="n">
-        <v>2.386794328689575</v>
+        <v>2.891966342926025</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3010552823543549</v>
+        <v>-0.7709367275238037</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.778053641319275</v>
+        <v>-1.386040091514587</v>
       </c>
       <c r="O2" t="n">
-        <v>8.167204856872559</v>
+        <v>8.829604148864746</v>
       </c>
       <c r="P2" t="n">
-        <v>-13.50146579742432</v>
+        <v>-13.57975673675537</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8.10992431640625</v>
+        <v>-7.411826133728027</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3195872604846954</v>
+        <v>0.7511387467384338</v>
       </c>
       <c r="S2" t="n">
-        <v>-5.899052143096924</v>
+        <v>-6.064626693725586</v>
       </c>
       <c r="T2" t="n">
-        <v>3.700315475463867</v>
+        <v>3.535294055938721</v>
       </c>
       <c r="U2" t="n">
-        <v>5.623733997344971</v>
+        <v>5.537552356719971</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.208044528961182</v>
+        <v>-0.67679762840271</v>
       </c>
       <c r="W2" t="n">
-        <v>1.608366250991821</v>
+        <v>2.166465759277344</v>
       </c>
       <c r="X2" t="n">
-        <v>1.997529983520508</v>
+        <v>2.5859534740448</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.427456378936768</v>
+        <v>2.755443334579468</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7078364491462708</v>
+        <v>-1.236466884613037</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.818164110183716</v>
+        <v>2.82117748260498</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.125107288360596</v>
+        <v>6.185983180999756</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.566304206848145</v>
+        <v>7.756992340087891</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8135004639625549</v>
+        <v>0.4545056819915771</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.210449695587158</v>
+        <v>5.868192672729492</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.770324230194092</v>
+        <v>-1.562597393989563</v>
       </c>
       <c r="AG2" t="n">
-        <v>-3.441272497177124</v>
+        <v>-3.157013654708862</v>
       </c>
       <c r="AH2" t="n">
-        <v>-19.57493019104004</v>
+        <v>-19.22838401794434</v>
       </c>
       <c r="AI2" t="n">
-        <v>-3.918062448501587</v>
+        <v>-2.945375680923462</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.4312933087348938</v>
+        <v>-0.2832801342010498</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.079744815826416</v>
+        <v>1.237243890762329</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.717673420906067</v>
+        <v>-1.092491984367371</v>
       </c>
       <c r="AM2" t="n">
-        <v>-6.410568237304688</v>
+        <v>-6.622070789337158</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.497729539871216</v>
+        <v>-2.227366209030151</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.408373594284058</v>
+        <v>3.130613088607788</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.802241921424866</v>
+        <v>1.493543028831482</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.03774949908256531</v>
+        <v>-0.6505481004714966</v>
       </c>
       <c r="AR2" t="n">
-        <v>-4.815228939056396</v>
+        <v>-5.233233451843262</v>
       </c>
       <c r="AS2" t="n">
-        <v>-2.049578666687012</v>
+        <v>-1.605093359947205</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.00456428527832</v>
+        <v>3.039658784866333</v>
       </c>
       <c r="AU2" t="n">
-        <v>-16.32108688354492</v>
+        <v>-16.27969360351562</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.424581289291382</v>
+        <v>-2.258044958114624</v>
       </c>
       <c r="AW2" t="n">
-        <v>-7.14567232131958</v>
+        <v>-7.49952220916748</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.68815326690674</v>
+        <v>11.26790237426758</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.4786654412746429</v>
+        <v>1.183001279830933</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-6.166995048522949</v>
+        <v>-6.362465858459473</v>
       </c>
       <c r="BA2" t="n">
-        <v>-10.38572406768799</v>
+        <v>-10.44546794891357</v>
       </c>
       <c r="BB2" t="n">
-        <v>-8.811892509460449</v>
+        <v>-8.071731567382812</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.4240764677524567</v>
+        <v>0.3846104741096497</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.763228178024292</v>
+        <v>1.385246992111206</v>
       </c>
       <c r="BE2" t="n">
-        <v>-2.334798097610474</v>
+        <v>-1.98398745059967</v>
       </c>
       <c r="BF2" t="n">
-        <v>-2.254945039749146</v>
+        <v>-1.647444248199463</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.6382461786270142</v>
+        <v>0.2810823917388916</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.172035351395607</v>
+        <v>0.4415260851383209</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.087607741355896</v>
+        <v>0.8103764057159424</v>
       </c>
       <c r="BJ2" t="n">
-        <v>9.182779312133789</v>
+        <v>8.534235954284668</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.2580170035362244</v>
+        <v>-0.2689201831817627</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.5941964387893677</v>
+        <v>-0.1034490689635277</v>
       </c>
       <c r="BM2" t="n">
-        <v>-3.60157322883606</v>
+        <v>-2.974633693695068</v>
       </c>
       <c r="BN2" t="n">
-        <v>-7.285992622375488</v>
+        <v>-6.991783142089844</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.198976993560791</v>
+        <v>3.694105863571167</v>
       </c>
       <c r="BP2" t="n">
-        <v>-3.664571523666382</v>
+        <v>-2.588106870651245</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-2.118289947509766</v>
+        <v>-2.0712730884552</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.3692972362041473</v>
+        <v>-1.001857280731201</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.342996954917908</v>
+        <v>-0.6123777031898499</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.004019360523670912</v>
+        <v>0.2236484587192535</v>
       </c>
       <c r="BU2" t="n">
-        <v>-2.281812906265259</v>
+        <v>-2.571093559265137</v>
       </c>
       <c r="BV2" t="n">
-        <v>-2.776495933532715</v>
+        <v>-3.714052200317383</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.7055085897445679</v>
+        <v>-0.01550369523465633</v>
       </c>
       <c r="BX2" t="n">
-        <v>-6.187655448913574</v>
+        <v>-5.936072826385498</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.5277794003486633</v>
+        <v>-1.750630617141724</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-12.24942779541016</v>
+        <v>-11.76272201538086</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.7944002747535706</v>
+        <v>-0.819882333278656</v>
       </c>
       <c r="CB2" t="n">
-        <v>-12.7191801071167</v>
+        <v>-12.14271545410156</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.7779288291931152</v>
+        <v>0.5572829842567444</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.9051524996757507</v>
+        <v>0.1393279135227203</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.9109137654304504</v>
+        <v>1.915114283561707</v>
       </c>
       <c r="CF2" t="n">
-        <v>-2.935935497283936</v>
+        <v>-2.091570377349854</v>
       </c>
       <c r="CG2" t="n">
-        <v>-5.651397705078125</v>
+        <v>-6.419196605682373</v>
       </c>
       <c r="CH2" t="n">
-        <v>-5.300179958343506</v>
+        <v>-5.609965324401855</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.263628721237183</v>
+        <v>0.8977136611938477</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.830672144889832</v>
+        <v>2.446972131729126</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.150822162628174</v>
+        <v>1.585376977920532</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.324678301811218</v>
+        <v>-1.540166616439819</v>
       </c>
       <c r="CM2" t="n">
-        <v>9.147562026977539</v>
+        <v>9.356961250305176</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.405572921037674</v>
+        <v>0.2156362980604172</v>
       </c>
       <c r="CO2" t="n">
-        <v>3.370529413223267</v>
+        <v>3.052573919296265</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.729238629341125</v>
+        <v>2.401785850524902</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.05886072665452957</v>
+        <v>-0.3323063552379608</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.317297101020813</v>
+        <v>0.1236569359898567</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.317417740821838</v>
+        <v>-1.623577475547791</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.453289270401001</v>
+        <v>1.231151819229126</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.1229690685868263</v>
+        <v>-0.4829550981521606</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.441932678222656</v>
+        <v>2.387495517730713</v>
       </c>
       <c r="CW2" t="n">
-        <v>13.98341178894043</v>
+        <v>14.67979717254639</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.1218165084719658</v>
+        <v>0.8329527974128723</v>
       </c>
       <c r="CY2" t="n">
-        <v>-2.947684288024902</v>
+        <v>-3.254534721374512</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.6143897771835327</v>
+        <v>-0.8767856359481812</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.147447824478149</v>
+        <v>1.203370213508606</v>
       </c>
       <c r="DB2" t="n">
-        <v>-6.5310378074646</v>
+        <v>-7.10300874710083</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.3622255027294159</v>
+        <v>-0.6302646398544312</v>
       </c>
       <c r="DD2" t="n">
-        <v>-7.251765727996826</v>
+        <v>-7.251924514770508</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.2162753939628601</v>
+        <v>-0.5349744558334351</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.027677059173584</v>
+        <v>5.549704074859619</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.284631252288818</v>
+        <v>0.7866896986961365</v>
       </c>
       <c r="DH2" t="n">
-        <v>5.574678421020508</v>
+        <v>4.936756610870361</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.285161375999451</v>
+        <v>0.4075513780117035</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-3.983115196228027</v>
+        <v>-4.461685657501221</v>
       </c>
       <c r="DK2" t="n">
-        <v>-7.485241413116455</v>
+        <v>-7.043910503387451</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.009161366149783134</v>
+        <v>0.5310001373291016</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.51918613910675</v>
+        <v>-2.611793279647827</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.1897294223308563</v>
+        <v>-0.479261726140976</v>
       </c>
       <c r="DO2" t="n">
-        <v>-6.965569496154785</v>
+        <v>-7.293849468231201</v>
       </c>
       <c r="DP2" t="n">
-        <v>-3.4080810546875</v>
+        <v>-2.980919122695923</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.4051410257816315</v>
+        <v>-0.03768115863204002</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.061861991882324</v>
+        <v>-0.6290079951286316</v>
       </c>
       <c r="DS2" t="n">
-        <v>-12.68216514587402</v>
+        <v>-12.56038475036621</v>
       </c>
       <c r="DT2" t="n">
-        <v>-3.187140703201294</v>
+        <v>-3.029685020446777</v>
       </c>
       <c r="DU2" t="n">
-        <v>3.948718309402466</v>
+        <v>4.155806064605713</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.809916615486145</v>
+        <v>2.406430244445801</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.02479367516934872</v>
+        <v>-0.2016761898994446</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.4000076651573181</v>
+        <v>0.1298903226852417</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.4897073209285736</v>
+        <v>0.3532689809799194</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.457756757736206</v>
+        <v>2.708967685699463</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.8789904713630676</v>
+        <v>-0.3958993852138519</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.8549814224243164</v>
+        <v>0.446898877620697</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.368996649980545</v>
+        <v>0.1072625070810318</v>
       </c>
       <c r="ED2" t="n">
-        <v>-2.297068119049072</v>
+        <v>-2.488856554031372</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.8386979699134827</v>
+        <v>0.4544835686683655</v>
       </c>
       <c r="EF2" t="n">
-        <v>-6.486362934112549</v>
+        <v>-6.560309410095215</v>
       </c>
       <c r="EG2" t="n">
-        <v>-2.473016738891602</v>
+        <v>-2.69170618057251</v>
       </c>
       <c r="EH2" t="n">
-        <v>-14.87761402130127</v>
+        <v>-14.29391288757324</v>
       </c>
       <c r="EI2" t="n">
-        <v>-12.85335636138916</v>
+        <v>-12.26799488067627</v>
       </c>
       <c r="EJ2" t="n">
-        <v>5.850422382354736</v>
+        <v>4.667868137359619</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.350736021995544</v>
+        <v>-1.65755307674408</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.2937662601470947</v>
+        <v>0.03163307160139084</v>
       </c>
       <c r="EM2" t="n">
-        <v>2.061188697814941</v>
+        <v>2.357162475585938</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.4610977172851562</v>
+        <v>0.05467129498720169</v>
       </c>
       <c r="EO2" t="n">
-        <v>13.25555610656738</v>
+        <v>12.55465126037598</v>
       </c>
       <c r="EP2" t="n">
-        <v>2.313571691513062</v>
+        <v>1.382935166358948</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.406660556793213</v>
+        <v>7.104843139648438</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.077130079269409</v>
+        <v>2.138896226882935</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.7902625799179077</v>
+        <v>0.1513099670410156</v>
       </c>
       <c r="ET2" t="n">
-        <v>3.170992136001587</v>
+        <v>2.107585906982422</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.6094592213630676</v>
+        <v>-0.4313729107379913</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.03471565246582</v>
+        <v>2.259084224700928</v>
       </c>
       <c r="EW2" t="n">
-        <v>11.68030834197998</v>
+        <v>11.16493701934814</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.4951490163803101</v>
+        <v>1.089920163154602</v>
       </c>
       <c r="EY2" t="n">
-        <v>-2.335387229919434</v>
+        <v>-2.615342617034912</v>
       </c>
       <c r="EZ2" t="n">
-        <v>12.99512481689453</v>
+        <v>12.42770004272461</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.652899980545044</v>
+        <v>-1.440678238868713</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.212449550628662</v>
+        <v>0.859782874584198</v>
       </c>
       <c r="FC2" t="n">
-        <v>-6.086999893188477</v>
+        <v>-6.744057655334473</v>
       </c>
       <c r="FD2" t="n">
-        <v>-2.01200795173645</v>
+        <v>-2.425468921661377</v>
       </c>
       <c r="FE2" t="n">
-        <v>-10.82510185241699</v>
+        <v>-10.75304508209229</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.54908549785614</v>
+        <v>1.323469400405884</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.150032043457031</v>
+        <v>-4.548539161682129</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.309391617774963</v>
+        <v>0.7598344683647156</v>
       </c>
       <c r="FI2" t="n">
-        <v>4.832707405090332</v>
+        <v>4.965139389038086</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.05843186378479</v>
+        <v>0.6401298642158508</v>
       </c>
       <c r="FK2" t="n">
-        <v>-8.901300430297852</v>
+        <v>-9.617090225219727</v>
       </c>
       <c r="FL2" t="n">
-        <v>-3.933491706848145</v>
+        <v>-3.379429340362549</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.6000948548316956</v>
+        <v>-0.3430829346179962</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.796493291854858</v>
+        <v>2.301650285720825</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.315362811088562</v>
+        <v>-1.201689481735229</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.9727118611335754</v>
+        <v>0.4269789755344391</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-2.410279273986816</v>
+        <v>-2.694093942642212</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.4473428428173065</v>
+        <v>0.04920938983559608</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.1001450195908546</v>
+        <v>-0.124277152121067</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.707817673683167</v>
+        <v>1.637325167655945</v>
       </c>
       <c r="FU2" t="n">
-        <v>-1.998426198959351</v>
+        <v>-2.182137250900269</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.6637888550758362</v>
+        <v>0.3083900809288025</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.090566635131836</v>
+        <v>6.791364192962646</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.6245284080505371</v>
+        <v>0.02896345406770706</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.6716011762619019</v>
+        <v>1.531703591346741</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-1.034916520118713</v>
+        <v>-0.7962677478790283</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.815711498260498</v>
+        <v>0.8835554122924805</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.51028972864151</v>
+        <v>0.01718268729746342</v>
       </c>
       <c r="GC2" t="n">
-        <v>-13.51027393341064</v>
+        <v>-13.17610836029053</v>
       </c>
       <c r="GD2" t="n">
-        <v>8.590129852294922</v>
+        <v>8.848976135253906</v>
       </c>
       <c r="GE2" t="n">
-        <v>-1.610998153686523</v>
+        <v>-1.865948081016541</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.656561732292175</v>
+        <v>2.597023487091064</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.08503644168376923</v>
+        <v>0.02292704582214355</v>
       </c>
       <c r="GH2" t="n">
-        <v>-3.717465400695801</v>
+        <v>-2.979989528656006</v>
       </c>
       <c r="GI2" t="n">
-        <v>-8.78802490234375</v>
+        <v>-7.80544376373291</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.5087228417396545</v>
+        <v>0.1622407883405685</v>
       </c>
       <c r="GK2" t="n">
-        <v>-12.10383129119873</v>
+        <v>-12.47775936126709</v>
       </c>
       <c r="GL2" t="n">
-        <v>5.943944931030273</v>
+        <v>5.218230724334717</v>
       </c>
       <c r="GM2" t="n">
-        <v>-8.359684944152832</v>
+        <v>-8.224408149719238</v>
       </c>
       <c r="GN2" t="n">
-        <v>-1.959365248680115</v>
+        <v>-2.693851470947266</v>
       </c>
       <c r="GO2" t="n">
-        <v>-7.753654003143311</v>
+        <v>-7.953487396240234</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.4036005139350891</v>
+        <v>-0.6685388684272766</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.4746488034725189</v>
+        <v>-0.2434381544589996</v>
       </c>
       <c r="GR2" t="n">
-        <v>-1.428764700889587</v>
+        <v>-1.744286060333252</v>
       </c>
       <c r="GS2" t="n">
-        <v>11.56834602355957</v>
+        <v>11.13430118560791</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.5429393649101257</v>
+        <v>0.5100016593933105</v>
       </c>
       <c r="GU2" t="n">
-        <v>-6.985066890716553</v>
+        <v>-7.30987024307251</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.860228061676025</v>
+        <v>-1.447404623031616</v>
       </c>
       <c r="GW2" t="n">
-        <v>7.29873514175415</v>
+        <v>8.227375984191895</v>
       </c>
       <c r="GX2" t="n">
-        <v>-3.008486747741699</v>
+        <v>-3.280182600021362</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.7464991211891174</v>
+        <v>-1.11456310749054</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Metals.xlsx
+++ b/static/Models/Classification/Equation/Metals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3075801730155945</v>
+        <v>0.7123708724975586</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.10222864151001</v>
+        <v>-5.273964881896973</v>
       </c>
       <c r="D2" t="n">
-        <v>7.344475269317627</v>
+        <v>6.419779777526855</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.9876127243042</v>
+        <v>-12.05336666107178</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.516832709312439</v>
+        <v>-1.112942695617676</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8139845728874207</v>
+        <v>0.04709133878350258</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6049918532371521</v>
+        <v>-1.38082492351532</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2339479923248291</v>
+        <v>0.175462618470192</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.975357532501221</v>
+        <v>-8.063048362731934</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.36366868019104</v>
+        <v>-0.6264522671699524</v>
       </c>
       <c r="L2" t="n">
-        <v>2.891966342926025</v>
+        <v>2.182380199432373</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.7709367275238037</v>
+        <v>-1.463031768798828</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.386040091514587</v>
+        <v>-0.533230185508728</v>
       </c>
       <c r="O2" t="n">
-        <v>8.829604148864746</v>
+        <v>8.26893138885498</v>
       </c>
       <c r="P2" t="n">
-        <v>-13.57975673675537</v>
+        <v>-13.30202674865723</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.411826133728027</v>
+        <v>-6.584216594696045</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7511387467384338</v>
+        <v>0.4658333957195282</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.064626693725586</v>
+        <v>-6.460732936859131</v>
       </c>
       <c r="T2" t="n">
-        <v>3.535294055938721</v>
+        <v>2.721980571746826</v>
       </c>
       <c r="U2" t="n">
-        <v>5.537552356719971</v>
+        <v>4.797314167022705</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.67679762840271</v>
+        <v>0.01861035823822021</v>
       </c>
       <c r="W2" t="n">
-        <v>2.166465759277344</v>
+        <v>1.216740131378174</v>
       </c>
       <c r="X2" t="n">
-        <v>2.5859534740448</v>
+        <v>3.37268853187561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.755443334579468</v>
+        <v>3.579864740371704</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.236466884613037</v>
+        <v>-1.928476929664612</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.82117748260498</v>
+        <v>2.124132871627808</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.185983180999756</v>
+        <v>5.389826774597168</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.756992340087891</v>
+        <v>7.10059642791748</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4545056819915771</v>
+        <v>0.8893225789070129</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.868192672729492</v>
+        <v>5.15837287902832</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.562597393989563</v>
+        <v>-2.085349082946777</v>
       </c>
       <c r="AG2" t="n">
-        <v>-3.157013654708862</v>
+        <v>-3.824355840682983</v>
       </c>
       <c r="AH2" t="n">
-        <v>-19.22838401794434</v>
+        <v>-18.33907508850098</v>
       </c>
       <c r="AI2" t="n">
-        <v>-2.945375680923462</v>
+        <v>-3.843811750411987</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2832801342010498</v>
+        <v>-0.6310088038444519</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.237243890762329</v>
+        <v>0.600941002368927</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.092491984367371</v>
+        <v>-0.3977472484111786</v>
       </c>
       <c r="AM2" t="n">
-        <v>-6.622070789337158</v>
+        <v>-6.721197128295898</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.227366209030151</v>
+        <v>-2.063462018966675</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.130613088607788</v>
+        <v>2.560565233230591</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.493543028831482</v>
+        <v>2.311538457870483</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.6505481004714966</v>
+        <v>-0.7971634864807129</v>
       </c>
       <c r="AR2" t="n">
-        <v>-5.233233451843262</v>
+        <v>-4.344885349273682</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.605093359947205</v>
+        <v>-0.8658173680305481</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.039658784866333</v>
+        <v>2.91471004486084</v>
       </c>
       <c r="AU2" t="n">
-        <v>-16.27969360351562</v>
+        <v>-15.69560432434082</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.258044958114624</v>
+        <v>-1.342246055603027</v>
       </c>
       <c r="AW2" t="n">
-        <v>-7.49952220916748</v>
+        <v>-6.896496772766113</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.26790237426758</v>
+        <v>10.28823375701904</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.183001279830933</v>
+        <v>1.309960842132568</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-6.362465858459473</v>
+        <v>-5.45280933380127</v>
       </c>
       <c r="BA2" t="n">
-        <v>-10.44546794891357</v>
+        <v>-11.13330173492432</v>
       </c>
       <c r="BB2" t="n">
-        <v>-8.071731567382812</v>
+        <v>-7.225675582885742</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.3846104741096497</v>
+        <v>-0.3749687671661377</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.385246992111206</v>
+        <v>1.71161687374115</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.98398745059967</v>
+        <v>-2.579628705978394</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.647444248199463</v>
+        <v>-0.8043183088302612</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.2810823917388916</v>
+        <v>0.6001147031784058</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.4415260851383209</v>
+        <v>-0.3142347037792206</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.8103764057159424</v>
+        <v>0.06503009796142578</v>
       </c>
       <c r="BJ2" t="n">
-        <v>8.534235954284668</v>
+        <v>9.462272644042969</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.2689201831817627</v>
+        <v>0.5123276114463806</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.1034490689635277</v>
+        <v>0.7075275778770447</v>
       </c>
       <c r="BM2" t="n">
-        <v>-2.974633693695068</v>
+        <v>-3.728899717330933</v>
       </c>
       <c r="BN2" t="n">
-        <v>-6.991783142089844</v>
+        <v>-7.770534515380859</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.694105863571167</v>
+        <v>2.854129314422607</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.588106870651245</v>
+        <v>-3.440084218978882</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-2.0712730884552</v>
+        <v>-2.716843605041504</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.001857280731201</v>
+        <v>-1.365622520446777</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.6123777031898499</v>
+        <v>0.1414937227964401</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.2236484587192535</v>
+        <v>-0.4339866638183594</v>
       </c>
       <c r="BU2" t="n">
-        <v>-2.571093559265137</v>
+        <v>-2.016435861587524</v>
       </c>
       <c r="BV2" t="n">
-        <v>-3.714052200317383</v>
+        <v>-2.884972333908081</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.01550369523465633</v>
+        <v>0.7635269165039062</v>
       </c>
       <c r="BX2" t="n">
-        <v>-5.936072826385498</v>
+        <v>-5.695526123046875</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.750630617141724</v>
+        <v>-0.8713440299034119</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-11.76272201538086</v>
+        <v>-12.29122257232666</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.819882333278656</v>
+        <v>-0.523019552230835</v>
       </c>
       <c r="CB2" t="n">
-        <v>-12.14271545410156</v>
+        <v>-11.25972080230713</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.5572829842567444</v>
+        <v>0.7020241022109985</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.1393279135227203</v>
+        <v>1.082862377166748</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.915114283561707</v>
+        <v>1.601767420768738</v>
       </c>
       <c r="CF2" t="n">
-        <v>-2.091570377349854</v>
+        <v>-2.838873386383057</v>
       </c>
       <c r="CG2" t="n">
-        <v>-6.419196605682373</v>
+        <v>-6.858339786529541</v>
       </c>
       <c r="CH2" t="n">
-        <v>-5.609965324401855</v>
+        <v>-4.61490535736084</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.8977136611938477</v>
+        <v>1.111395716667175</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.446972131729126</v>
+        <v>3.269267797470093</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.585376977920532</v>
+        <v>1.973596930503845</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.540166616439819</v>
+        <v>-1.104055523872375</v>
       </c>
       <c r="CM2" t="n">
-        <v>9.356961250305176</v>
+        <v>8.688238143920898</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.2156362980604172</v>
+        <v>0.9280808568000793</v>
       </c>
       <c r="CO2" t="n">
-        <v>3.052573919296265</v>
+        <v>2.578812837600708</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.401785850524902</v>
+        <v>3.28019905090332</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.3323063552379608</v>
+        <v>-1.08483624458313</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.1236569359898567</v>
+        <v>0.9679012894630432</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.623577475547791</v>
+        <v>-2.213381052017212</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.231151819229126</v>
+        <v>1.237339377403259</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.4829550981521606</v>
+        <v>-0.838949978351593</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.387495517730713</v>
+        <v>2.963025808334351</v>
       </c>
       <c r="CW2" t="n">
-        <v>14.67979717254639</v>
+        <v>15.38245677947998</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.8329527974128723</v>
+        <v>1.633062839508057</v>
       </c>
       <c r="CY2" t="n">
-        <v>-3.254534721374512</v>
+        <v>-2.562607049942017</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.8767856359481812</v>
+        <v>-1.596388101577759</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.203370213508606</v>
+        <v>0.4024150371551514</v>
       </c>
       <c r="DB2" t="n">
-        <v>-7.10300874710083</v>
+        <v>-6.149346828460693</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.6302646398544312</v>
+        <v>-1.45513379573822</v>
       </c>
       <c r="DD2" t="n">
-        <v>-7.251924514770508</v>
+        <v>-6.53593921661377</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.5349744558334351</v>
+        <v>-0.6797367930412292</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.549704074859619</v>
+        <v>6.421469211578369</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.7866896986961365</v>
+        <v>0.03069473616778851</v>
       </c>
       <c r="DH2" t="n">
-        <v>4.936756610870361</v>
+        <v>4.1078782081604</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.4075513780117035</v>
+        <v>0.755095899105072</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-4.461685657501221</v>
+        <v>-5.37373685836792</v>
       </c>
       <c r="DK2" t="n">
-        <v>-7.043910503387451</v>
+        <v>-6.467907428741455</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.5310001373291016</v>
+        <v>1.201177477836609</v>
       </c>
       <c r="DM2" t="n">
-        <v>-2.611793279647827</v>
+        <v>-3.418560743331909</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.479261726140976</v>
+        <v>-0.0758122131228447</v>
       </c>
       <c r="DO2" t="n">
-        <v>-7.293849468231201</v>
+        <v>-7.3817458152771</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.980919122695923</v>
+        <v>-2.24226975440979</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.03768115863204002</v>
+        <v>-0.0166011992841959</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.6290079951286316</v>
+        <v>-1.454051375389099</v>
       </c>
       <c r="DS2" t="n">
-        <v>-12.56038475036621</v>
+        <v>-11.72192764282227</v>
       </c>
       <c r="DT2" t="n">
-        <v>-3.029685020446777</v>
+        <v>-3.691888332366943</v>
       </c>
       <c r="DU2" t="n">
-        <v>4.155806064605713</v>
+        <v>3.431071758270264</v>
       </c>
       <c r="DV2" t="n">
-        <v>2.406430244445801</v>
+        <v>2.893887281417847</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.2016761898994446</v>
+        <v>-0.3943381607532501</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.1298903226852417</v>
+        <v>0.4831350743770599</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.3532689809799194</v>
+        <v>-0.4806193709373474</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.708967685699463</v>
+        <v>1.674896240234375</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.3958993852138519</v>
+        <v>0.4261673390865326</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.446898877620697</v>
+        <v>0.8353127241134644</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.1072625070810318</v>
+        <v>-0.6575987935066223</v>
       </c>
       <c r="ED2" t="n">
-        <v>-2.488856554031372</v>
+        <v>-3.257672309875488</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.4544835686683655</v>
+        <v>0.1301354914903641</v>
       </c>
       <c r="EF2" t="n">
-        <v>-6.560309410095215</v>
+        <v>-7.467940330505371</v>
       </c>
       <c r="EG2" t="n">
-        <v>-2.69170618057251</v>
+        <v>-3.292079925537109</v>
       </c>
       <c r="EH2" t="n">
-        <v>-14.29391288757324</v>
+        <v>-13.70838356018066</v>
       </c>
       <c r="EI2" t="n">
-        <v>-12.26799488067627</v>
+        <v>-12.48757076263428</v>
       </c>
       <c r="EJ2" t="n">
-        <v>4.667868137359619</v>
+        <v>5.54210901260376</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.65755307674408</v>
+        <v>-1.083208322525024</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.03163307160139084</v>
+        <v>0.3891491293907166</v>
       </c>
       <c r="EM2" t="n">
-        <v>2.357162475585938</v>
+        <v>1.099235653877258</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.05467129498720169</v>
+        <v>-0.5398740172386169</v>
       </c>
       <c r="EO2" t="n">
-        <v>12.55465126037598</v>
+        <v>12.00714778900146</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.382935166358948</v>
+        <v>0.4737010896205902</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.104843139648438</v>
+        <v>6.33549165725708</v>
       </c>
       <c r="ER2" t="n">
-        <v>2.138896226882935</v>
+        <v>2.87790060043335</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.1513099670410156</v>
+        <v>0.988542914390564</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.107585906982422</v>
+        <v>2.722739219665527</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.4313729107379913</v>
+        <v>0.4404053688049316</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.259084224700928</v>
+        <v>2.019488573074341</v>
       </c>
       <c r="EW2" t="n">
-        <v>11.16493701934814</v>
+        <v>12.09211349487305</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.089920163154602</v>
+        <v>0.004413758404552937</v>
       </c>
       <c r="EY2" t="n">
-        <v>-2.615342617034912</v>
+        <v>-1.942653894424438</v>
       </c>
       <c r="EZ2" t="n">
-        <v>12.42770004272461</v>
+        <v>11.75986671447754</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.440678238868713</v>
+        <v>-0.6446150541305542</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.859782874584198</v>
+        <v>0.4336523115634918</v>
       </c>
       <c r="FC2" t="n">
-        <v>-6.744057655334473</v>
+        <v>-7.615311145782471</v>
       </c>
       <c r="FD2" t="n">
-        <v>-2.425468921661377</v>
+        <v>-3.139682769775391</v>
       </c>
       <c r="FE2" t="n">
-        <v>-10.75304508209229</v>
+        <v>-9.874675750732422</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.323469400405884</v>
+        <v>2.14424729347229</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.548539161682129</v>
+        <v>-4.756896018981934</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.7598344683647156</v>
+        <v>0.1161239966750145</v>
       </c>
       <c r="FI2" t="n">
-        <v>4.965139389038086</v>
+        <v>4.190196990966797</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.6401298642158508</v>
+        <v>1.375728607177734</v>
       </c>
       <c r="FK2" t="n">
-        <v>-9.617090225219727</v>
+        <v>-8.847249984741211</v>
       </c>
       <c r="FL2" t="n">
-        <v>-3.379429340362549</v>
+        <v>-4.324665546417236</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.3430829346179962</v>
+        <v>-0.7588822245597839</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.301650285720825</v>
+        <v>3.164286375045776</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.201689481735229</v>
+        <v>-1.378809690475464</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.4269789755344391</v>
+        <v>1.308975219726562</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-2.694093942642212</v>
+        <v>-2.403464555740356</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.04920938983559608</v>
+        <v>-0.2207047343254089</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.124277152121067</v>
+        <v>0.2957000434398651</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.637325167655945</v>
+        <v>1.272948265075684</v>
       </c>
       <c r="FU2" t="n">
-        <v>-2.182137250900269</v>
+        <v>-2.87152624130249</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.3083900809288025</v>
+        <v>0.845590353012085</v>
       </c>
       <c r="FW2" t="n">
-        <v>6.791364192962646</v>
+        <v>6.137721061706543</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.02896345406770706</v>
+        <v>-0.8792063593864441</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.531703591346741</v>
+        <v>0.6259242296218872</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.7962677478790283</v>
+        <v>-0.150071769952774</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.8835554122924805</v>
+        <v>0.1653137803077698</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.01718268729746342</v>
+        <v>-0.01593757607042789</v>
       </c>
       <c r="GC2" t="n">
-        <v>-13.17610836029053</v>
+        <v>-13.84340667724609</v>
       </c>
       <c r="GD2" t="n">
-        <v>8.848976135253906</v>
+        <v>8.168416023254395</v>
       </c>
       <c r="GE2" t="n">
-        <v>-1.865948081016541</v>
+        <v>-1.528934955596924</v>
       </c>
       <c r="GF2" t="n">
-        <v>2.597023487091064</v>
+        <v>3.170385837554932</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.02292704582214355</v>
+        <v>0.7735958695411682</v>
       </c>
       <c r="GH2" t="n">
-        <v>-2.979989528656006</v>
+        <v>-2.032634735107422</v>
       </c>
       <c r="GI2" t="n">
-        <v>-7.80544376373291</v>
+        <v>-8.5914306640625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.1622407883405685</v>
+        <v>0.8661115765571594</v>
       </c>
       <c r="GK2" t="n">
-        <v>-12.47775936126709</v>
+        <v>-13.27350902557373</v>
       </c>
       <c r="GL2" t="n">
-        <v>5.218230724334717</v>
+        <v>4.7654128074646</v>
       </c>
       <c r="GM2" t="n">
-        <v>-8.224408149719238</v>
+        <v>-7.350004196166992</v>
       </c>
       <c r="GN2" t="n">
-        <v>-2.693851470947266</v>
+        <v>-1.839169979095459</v>
       </c>
       <c r="GO2" t="n">
-        <v>-7.953487396240234</v>
+        <v>-7.065479278564453</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.6685388684272766</v>
+        <v>-0.246370330452919</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.2434381544589996</v>
+        <v>0.4779671728610992</v>
       </c>
       <c r="GR2" t="n">
-        <v>-1.744286060333252</v>
+        <v>-2.423425436019897</v>
       </c>
       <c r="GS2" t="n">
-        <v>11.13430118560791</v>
+        <v>10.17634391784668</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.5100016593933105</v>
+        <v>-0.009752314537763596</v>
       </c>
       <c r="GU2" t="n">
-        <v>-7.30987024307251</v>
+        <v>-6.764677047729492</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.447404623031616</v>
+        <v>-0.6942468881607056</v>
       </c>
       <c r="GW2" t="n">
-        <v>8.227375984191895</v>
+        <v>7.446983814239502</v>
       </c>
       <c r="GX2" t="n">
-        <v>-3.280182600021362</v>
+        <v>-2.79998517036438</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.11456310749054</v>
+        <v>-0.7032490372657776</v>
       </c>
     </row>
   </sheetData>
